--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.10.30</t>
+  </si>
+  <si>
     <t>X2018.10.28</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>John Rambo</t>
   </si>
   <si>
+    <t>pedro</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
@@ -224,22 +230,25 @@
     <t>Jonas 705</t>
   </si>
   <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
     <t>-BF</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -366,2877 +375,2991 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
         <v>75</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
         <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s">
         <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" t="s">
         <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s">
         <v>75</v>
       </c>
       <c r="W24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" t="s">
         <v>73</v>
       </c>
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" t="s">
-        <v>71</v>
-      </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
         <v>73</v>
       </c>
       <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" t="s">
         <v>73</v>
       </c>
-      <c r="M29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" t="s">
-        <v>71</v>
-      </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s">
+        <v>75</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s">
         <v>73</v>
       </c>
-      <c r="U29" t="s">
-        <v>71</v>
-      </c>
-      <c r="V29" t="s">
-        <v>73</v>
-      </c>
-      <c r="W29" t="s">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s">
-        <v>71</v>
-      </c>
       <c r="Y29" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s">
         <v>73</v>
       </c>
       <c r="W31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s">
+        <v>75</v>
+      </c>
+      <c r="T33" t="s">
+        <v>75</v>
+      </c>
+      <c r="U33" t="s">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s">
         <v>73</v>
       </c>
-      <c r="M33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" t="s">
-        <v>71</v>
-      </c>
-      <c r="O33" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>71</v>
-      </c>
-      <c r="R33" t="s">
-        <v>73</v>
-      </c>
-      <c r="S33" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" t="s">
-        <v>71</v>
-      </c>
-      <c r="U33" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" t="s">
-        <v>71</v>
-      </c>
       <c r="W33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s">
         <v>74</v>
       </c>
       <c r="T36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
         <v>74</v>
@@ -3248,588 +3371,772 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
         <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>78</v>
+      </c>
+      <c r="R47" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>78</v>
+      </c>
+      <c r="R48" t="s">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.01</t>
+  </si>
+  <si>
     <t>X2018.10.30</t>
   </si>
   <si>
@@ -233,19 +236,19 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>-BF</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>MIA</t>
   </si>
   <si>
     <t/>
@@ -378,22 +381,25 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -402,13 +408,13 @@
         <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -423,13 +429,13 @@
         <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
         <v>74</v>
@@ -450,24 +456,27 @@
         <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
         <v>74</v>
       </c>
       <c r="Z2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
@@ -482,7 +491,7 @@
         <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>75</v>
@@ -491,13 +500,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
         <v>75</v>
@@ -506,16 +515,16 @@
         <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
         <v>75</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
         <v>74</v>
@@ -524,7 +533,7 @@
         <v>75</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s">
         <v>74</v>
@@ -537,142 +546,148 @@
       </c>
       <c r="Z3" t="s">
         <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
         <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
         <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s">
         <v>74</v>
@@ -681,33 +696,36 @@
         <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -716,16 +734,16 @@
         <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -734,10 +752,10 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
         <v>74</v>
@@ -746,13 +764,13 @@
         <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q6" t="s">
         <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
         <v>75</v>
@@ -761,7 +779,7 @@
         <v>74</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s">
         <v>75</v>
@@ -776,21 +794,24 @@
         <v>74</v>
       </c>
       <c r="Z6" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
@@ -799,7 +820,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>74</v>
@@ -811,19 +832,19 @@
         <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
         <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
         <v>74</v>
@@ -835,10 +856,10 @@
         <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s">
         <v>75</v>
@@ -856,60 +877,63 @@
         <v>75</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
         <v>75</v>
@@ -918,72 +942,75 @@
         <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
         <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
         <v>75</v>
@@ -992,7 +1019,7 @@
         <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
         <v>75</v>
@@ -1001,42 +1028,45 @@
         <v>74</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s">
         <v>75</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s">
         <v>74</v>
       </c>
       <c r="Z9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
@@ -1045,72 +1075,75 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
         <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>75</v>
@@ -1122,7 +1155,7 @@
         <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>74</v>
@@ -1131,7 +1164,7 @@
         <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -1140,10 +1173,10 @@
         <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
         <v>74</v>
@@ -1158,57 +1191,60 @@
         <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -1217,51 +1253,54 @@
         <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
         <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
         <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s">
         <v>75</v>
       </c>
       <c r="W12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s">
         <v>74</v>
       </c>
       <c r="Z12" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -1276,10 +1315,10 @@
         <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
         <v>74</v>
@@ -1288,28 +1327,28 @@
         <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
         <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O13" t="s">
         <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
         <v>75</v>
@@ -1318,7 +1357,7 @@
         <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
         <v>75</v>
@@ -1333,42 +1372,45 @@
         <v>74</v>
       </c>
       <c r="Y13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s">
         <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
@@ -1380,54 +1422,57 @@
         <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
         <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s">
         <v>74</v>
       </c>
       <c r="Z14" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
@@ -1439,13 +1484,13 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
         <v>75</v>
@@ -1454,7 +1499,7 @@
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
         <v>75</v>
@@ -1463,7 +1508,7 @@
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s">
         <v>75</v>
@@ -1481,72 +1526,75 @@
         <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
         <v>75</v>
@@ -1555,16 +1603,16 @@
         <v>74</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s">
         <v>75</v>
       </c>
       <c r="V16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s">
         <v>74</v>
@@ -1573,95 +1621,101 @@
         <v>75</v>
       </c>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s">
         <v>74</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -1673,40 +1727,40 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
         <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" t="s">
         <v>74</v>
@@ -1715,10 +1769,10 @@
         <v>75</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s">
         <v>74</v>
@@ -1727,104 +1781,110 @@
         <v>75</v>
       </c>
       <c r="W18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s">
         <v>74</v>
       </c>
       <c r="Y18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
         <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
         <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -1833,7 +1893,7 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -1842,25 +1902,25 @@
         <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O20" t="s">
         <v>75</v>
@@ -1869,13 +1929,13 @@
         <v>74</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s">
         <v>75</v>
@@ -1887,45 +1947,48 @@
         <v>75</v>
       </c>
       <c r="W20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
         <v>75</v>
@@ -1934,7 +1997,7 @@
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
         <v>75</v>
@@ -1946,54 +2009,57 @@
         <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s">
         <v>75</v>
       </c>
       <c r="T21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s">
         <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>74</v>
@@ -2002,25 +2068,25 @@
         <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
         <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O22" t="s">
         <v>75</v>
@@ -2029,51 +2095,54 @@
         <v>74</v>
       </c>
       <c r="Q22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s">
         <v>75</v>
       </c>
       <c r="V22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s">
         <v>74</v>
       </c>
       <c r="X22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>74</v>
@@ -2082,31 +2151,31 @@
         <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="s">
         <v>77</v>
       </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" t="s">
-        <v>75</v>
-      </c>
       <c r="N23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="s">
         <v>74</v>
@@ -2115,36 +2184,39 @@
         <v>75</v>
       </c>
       <c r="S23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s">
         <v>74</v>
       </c>
       <c r="V23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s">
         <v>75</v>
       </c>
       <c r="Z23" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -2153,10 +2225,10 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>75</v>
@@ -2165,16 +2237,16 @@
         <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
         <v>75</v>
@@ -2183,87 +2255,90 @@
         <v>74</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
         <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
         <v>74</v>
       </c>
       <c r="S24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s">
         <v>75</v>
       </c>
       <c r="W24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s">
         <v>75</v>
       </c>
       <c r="Z24" t="s">
         <v>74</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
         <v>75</v>
@@ -2272,19 +2347,19 @@
         <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s">
         <v>74</v>
       </c>
       <c r="U25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s">
         <v>75</v>
@@ -2293,69 +2368,72 @@
         <v>74</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s">
         <v>75</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" t="s">
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" t="s">
-        <v>74</v>
-      </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s">
         <v>75</v>
@@ -2364,48 +2442,51 @@
         <v>74</v>
       </c>
       <c r="V26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s">
         <v>75</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
         <v>75</v>
@@ -2414,10 +2495,10 @@
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N27" t="s">
         <v>75</v>
@@ -2426,10 +2507,10 @@
         <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s">
         <v>75</v>
@@ -2438,13 +2519,13 @@
         <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s">
         <v>75</v>
@@ -2457,14 +2538,17 @@
       </c>
       <c r="Z27" t="s">
         <v>74</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -2491,16 +2575,16 @@
         <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" t="s">
         <v>75</v>
@@ -2509,19 +2593,19 @@
         <v>74</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s">
         <v>75</v>
@@ -2537,68 +2621,71 @@
       </c>
       <c r="Z28" t="s">
         <v>75</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
         <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s">
         <v>77</v>
       </c>
       <c r="Q29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s">
         <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s">
         <v>75</v>
@@ -2607,21 +2694,24 @@
         <v>74</v>
       </c>
       <c r="W29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s">
         <v>77</v>
       </c>
       <c r="Z29" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
@@ -2630,58 +2720,58 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
         <v>74</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" t="s">
         <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s">
         <v>74</v>
@@ -2693,48 +2783,51 @@
         <v>74</v>
       </c>
       <c r="Y30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s">
         <v>75</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
         <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M31" t="s">
         <v>74</v>
@@ -2743,60 +2836,63 @@
         <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s">
         <v>74</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s">
         <v>74</v>
       </c>
       <c r="Y31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
         <v>75</v>
@@ -2805,182 +2901,188 @@
         <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" t="s">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s">
+        <v>75</v>
+      </c>
+      <c r="T33" t="s">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>77</v>
-      </c>
-      <c r="N33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O33" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>77</v>
-      </c>
-      <c r="R33" t="s">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s">
-        <v>75</v>
-      </c>
-      <c r="T33" t="s">
-        <v>75</v>
-      </c>
-      <c r="U33" t="s">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s">
-        <v>73</v>
-      </c>
-      <c r="W33" t="s">
-        <v>74</v>
-      </c>
       <c r="X33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
         <v>75</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s">
         <v>74</v>
@@ -2989,10 +3091,10 @@
         <v>75</v>
       </c>
       <c r="Q34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s">
         <v>75</v>
@@ -3001,33 +3103,36 @@
         <v>74</v>
       </c>
       <c r="U34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s">
         <v>75</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -3036,247 +3141,256 @@
         <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
         <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s">
         <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N35" t="s">
         <v>74</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s">
         <v>75</v>
       </c>
       <c r="Q35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s">
         <v>75</v>
       </c>
       <c r="X35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
         <v>75</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
         <v>75</v>
@@ -3285,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s">
         <v>75</v>
@@ -3297,143 +3411,149 @@
         <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s">
         <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>74</v>
@@ -3442,232 +3562,241 @@
         <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
         <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
         <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
         <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>74</v>
@@ -3676,155 +3805,161 @@
         <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
         <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -3833,78 +3968,81 @@
         <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -3913,230 +4051,239 @@
         <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
         <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.03</t>
+  </si>
+  <si>
     <t>X2018.11.01</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>castelhano</t>
-  </si>
-  <si>
     <t>topdosl33ts</t>
   </si>
   <si>
@@ -236,6 +236,15 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>Doomesticador</t>
+  </si>
+  <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
+    <t>EBAERV_</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -248,10 +257,10 @@
     <t>-BF</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -384,3354 +393,3477 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s">
         <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s">
         <v>79</v>
       </c>
       <c r="X15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s">
         <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s">
         <v>78</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
         <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
         <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s">
         <v>77</v>
       </c>
       <c r="Z29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s">
         <v>77</v>
       </c>
       <c r="X31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L39" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
         <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s">
         <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
         <v>79</v>
@@ -3782,356 +3914,371 @@
         <v>79</v>
       </c>
       <c r="Z42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
         <v>79</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
@@ -4143,147 +4290,325 @@
         <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48" t="s">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" t="s">
+        <v>81</v>
+      </c>
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>81</v>
+      </c>
+      <c r="R49" t="s">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="E48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>79</v>
-      </c>
-      <c r="R48" t="s">
-        <v>79</v>
-      </c>
-      <c r="S48" t="s">
-        <v>79</v>
-      </c>
-      <c r="T48" t="s">
-        <v>79</v>
-      </c>
-      <c r="U48" t="s">
-        <v>79</v>
-      </c>
-      <c r="V48" t="s">
-        <v>79</v>
-      </c>
-      <c r="W48" t="s">
-        <v>79</v>
-      </c>
-      <c r="X48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>79</v>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" t="s">
+        <v>79</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.05</t>
+  </si>
+  <si>
     <t>X2018.11.03</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>pwepito</t>
+  </si>
+  <si>
     <t>Doomesticador</t>
   </si>
   <si>
@@ -254,10 +260,10 @@
     <t>MIA</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>-BF</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2</t>
@@ -396,1191 +402,1233 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
         <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
         <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
         <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
         <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
         <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
         <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
         <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
         <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
         <v>79</v>
       </c>
       <c r="Y11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s">
         <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s">
         <v>79</v>
@@ -1589,1866 +1637,1932 @@
         <v>81</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
         <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
         <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s">
         <v>79</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s">
         <v>79</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U19" t="s">
         <v>81</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
         <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
         <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s">
         <v>79</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AA24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
         <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s">
         <v>80</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="U28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AB28" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s">
         <v>80</v>
       </c>
       <c r="Y30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O31" t="s">
         <v>79</v>
       </c>
       <c r="P31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s">
         <v>79</v>
       </c>
       <c r="V31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s">
         <v>79</v>
       </c>
       <c r="AB31" t="s">
         <v>81</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s">
         <v>79</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s">
         <v>79</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s">
         <v>79</v>
       </c>
       <c r="T33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s">
         <v>79</v>
       </c>
       <c r="T34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s">
         <v>79</v>
       </c>
       <c r="AA34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L36" t="s">
         <v>79</v>
       </c>
       <c r="M36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s">
         <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O37" t="s">
         <v>79</v>
@@ -3457,81 +3571,84 @@
         <v>81</v>
       </c>
       <c r="Q37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N38" t="s">
         <v>79</v>
@@ -3540,72 +3657,75 @@
         <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
         <v>79</v>
@@ -3614,342 +3734,354 @@
         <v>81</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
         <v>81</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s">
         <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s">
         <v>81</v>
       </c>
       <c r="AA42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s">
         <v>79</v>
@@ -3958,490 +4090,508 @@
         <v>81</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s">
         <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB44" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s">
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>81</v>
@@ -4522,93 +4672,188 @@
         <v>81</v>
       </c>
       <c r="AB49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" t="s">
+        <v>81</v>
+      </c>
+      <c r="N51" t="s">
+        <v>81</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s">
+        <v>82</v>
+      </c>
+      <c r="T51" t="s">
+        <v>82</v>
+      </c>
+      <c r="U51" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" t="s">
+        <v>82</v>
+      </c>
+      <c r="W51" t="s">
+        <v>82</v>
+      </c>
+      <c r="X51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -239,10 +239,10 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>Doomesticador</t>
+  </si>
+  <si>
     <t>pwepito</t>
-  </si>
-  <si>
-    <t>Doomesticador</t>
   </si>
   <si>
     <t>SELFIE</t>
@@ -4505,88 +4505,88 @@
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -4594,88 +4594,88 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.07</t>
+  </si>
+  <si>
     <t>X2018.11.05</t>
   </si>
   <si>
@@ -239,22 +242,22 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
     <t>Doomesticador</t>
   </si>
   <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>SELFIE</t>
-  </si>
-  <si>
     <t>EBAERV_</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>MIA</t>
@@ -405,99 +408,105 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
         <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -506,34 +515,34 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>80</v>
@@ -545,10 +554,10 @@
         <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
         <v>80</v>
@@ -557,36 +566,39 @@
         <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -598,322 +610,331 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
         <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
         <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
         <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z4" t="s">
         <v>80</v>
       </c>
       <c r="AA4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
         <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
         <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
         <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
         <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
         <v>80</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
         <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
         <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s">
         <v>80</v>
@@ -922,27 +943,30 @@
         <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -960,13 +984,13 @@
         <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -975,13 +999,13 @@
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
         <v>80</v>
@@ -1002,10 +1026,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -1026,12 +1050,15 @@
         <v>80</v>
       </c>
       <c r="AC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -1046,37 +1073,37 @@
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
         <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
@@ -1085,42 +1112,45 @@
         <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
         <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -1129,13 +1159,13 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
@@ -1147,10 +1177,10 @@
         <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -1168,13 +1198,13 @@
         <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
         <v>80</v>
@@ -1204,12 +1234,15 @@
         <v>80</v>
       </c>
       <c r="AC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -1218,176 +1251,182 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s">
         <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
         <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
         <v>81</v>
       </c>
       <c r="AA12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -1396,49 +1435,49 @@
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
         <v>80</v>
@@ -1447,63 +1486,66 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s">
         <v>80</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -1515,81 +1557,84 @@
         <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
       </c>
       <c r="X14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
@@ -1601,37 +1646,37 @@
         <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
         <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s">
         <v>81</v>
@@ -1640,81 +1685,84 @@
         <v>82</v>
       </c>
       <c r="Z15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC15" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s">
         <v>80</v>
@@ -1723,241 +1771,250 @@
         <v>80</v>
       </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
         <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
         <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s">
         <v>81</v>
       </c>
       <c r="AA17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s">
         <v>81</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s">
         <v>80</v>
       </c>
       <c r="AC18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
         <v>80</v>
@@ -1966,84 +2023,87 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
         <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC19" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
         <v>80</v>
@@ -2061,10 +2121,10 @@
         <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s">
         <v>80</v>
@@ -2076,33 +2136,36 @@
         <v>80</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
@@ -2111,16 +2174,16 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>80</v>
@@ -2135,96 +2198,99 @@
         <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U21" t="s">
         <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s">
         <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s">
         <v>80</v>
       </c>
       <c r="AA21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
         <v>80</v>
@@ -2233,22 +2299,22 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
         <v>80</v>
@@ -2257,116 +2323,122 @@
         <v>80</v>
       </c>
       <c r="X22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s">
         <v>80</v>
       </c>
       <c r="AB22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
         <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s">
         <v>80</v>
       </c>
       <c r="Z23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s">
         <v>81</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -2381,22 +2453,22 @@
         <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
         <v>80</v>
@@ -2411,22 +2483,22 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s">
         <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s">
         <v>80</v>
@@ -2438,48 +2510,51 @@
         <v>80</v>
       </c>
       <c r="Y24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
         <v>80</v>
@@ -2491,22 +2566,22 @@
         <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
         <v>80</v>
       </c>
       <c r="Q25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S25" t="s">
         <v>80</v>
@@ -2515,16 +2590,16 @@
         <v>80</v>
       </c>
       <c r="U25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s">
         <v>80</v>
@@ -2539,36 +2614,39 @@
         <v>80</v>
       </c>
       <c r="AC25" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
         <v>80</v>
@@ -2580,10 +2658,10 @@
         <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" t="s">
         <v>80</v>
@@ -2592,10 +2670,10 @@
         <v>80</v>
       </c>
       <c r="Q26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s">
         <v>80</v>
@@ -2604,10 +2682,10 @@
         <v>80</v>
       </c>
       <c r="U26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
         <v>80</v>
@@ -2619,27 +2697,30 @@
         <v>80</v>
       </c>
       <c r="Z26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -2648,28 +2729,28 @@
         <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" t="s">
         <v>80</v>
@@ -2684,10 +2765,10 @@
         <v>80</v>
       </c>
       <c r="R27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s">
         <v>80</v>
@@ -2705,113 +2786,119 @@
         <v>80</v>
       </c>
       <c r="Y27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC28" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
@@ -2823,10 +2910,10 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
         <v>80</v>
@@ -2838,13 +2925,13 @@
         <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
         <v>80</v>
@@ -2853,13 +2940,13 @@
         <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s">
         <v>80</v>
@@ -2877,45 +2964,48 @@
         <v>80</v>
       </c>
       <c r="W29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s">
         <v>80</v>
       </c>
       <c r="AC29" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
         <v>80</v>
@@ -2939,22 +3029,22 @@
         <v>80</v>
       </c>
       <c r="N30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s">
         <v>80</v>
@@ -2972,208 +3062,217 @@
         <v>80</v>
       </c>
       <c r="Y30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AA30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s">
         <v>80</v>
       </c>
       <c r="AC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s">
         <v>81</v>
       </c>
       <c r="Q31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s">
         <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s">
         <v>81</v>
       </c>
       <c r="AC31" t="s">
         <v>82</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
         <v>81</v>
       </c>
       <c r="N32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s">
         <v>81</v>
       </c>
       <c r="T32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AA32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3182,13 +3281,13 @@
         <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
         <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
         <v>80</v>
@@ -3212,28 +3311,28 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s">
         <v>81</v>
       </c>
       <c r="U33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s">
         <v>80</v>
@@ -3251,15 +3350,18 @@
         <v>80</v>
       </c>
       <c r="AC33" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
@@ -3268,55 +3370,55 @@
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
         <v>80</v>
       </c>
       <c r="M34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s">
         <v>80</v>
       </c>
       <c r="S34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s">
         <v>81</v>
       </c>
       <c r="U34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s">
         <v>80</v>
@@ -3331,241 +3433,250 @@
         <v>80</v>
       </c>
       <c r="Z34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s">
         <v>81</v>
       </c>
       <c r="AB34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M36" t="s">
         <v>81</v>
       </c>
       <c r="N36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O36" t="s">
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s">
         <v>82</v>
       </c>
       <c r="V36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC36" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
         <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
         <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
         <v>80</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P37" t="s">
         <v>81</v>
@@ -3574,48 +3685,51 @@
         <v>82</v>
       </c>
       <c r="R37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC37" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
@@ -3624,13 +3738,13 @@
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
         <v>80</v>
@@ -3651,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="N38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O38" t="s">
         <v>81</v>
@@ -3660,75 +3774,78 @@
         <v>82</v>
       </c>
       <c r="Q38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
         <v>81</v>
@@ -3737,354 +3854,366 @@
         <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC39" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s">
         <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC40" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s">
         <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC41" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s">
         <v>82</v>
       </c>
       <c r="AB42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC42" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -4093,60 +4222,63 @@
         <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC43" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
@@ -4155,443 +4287,458 @@
         <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
         <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC44" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
         <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
         <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC45" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC46" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
         <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC47" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC48" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>
@@ -4675,185 +4822,194 @@
         <v>82</v>
       </c>
       <c r="AC49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s">
         <v>82</v>
       </c>
       <c r="T51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC51" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.09</t>
+  </si>
+  <si>
     <t>X2018.11.07</t>
   </si>
   <si>
@@ -263,10 +266,10 @@
     <t>MIA</t>
   </si>
   <si>
+    <t>-BF</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>-BF</t>
   </si>
   <si>
     <t>2</t>
@@ -411,206 +414,215 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
         <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
         <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
         <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
         <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s">
         <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
         <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s">
         <v>81</v>
       </c>
       <c r="AB2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
         <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
         <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
         <v>81</v>
       </c>
       <c r="W3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
         <v>81</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s">
         <v>81</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
@@ -619,99 +631,102 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
         <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
         <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
         <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
         <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
         <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
         <v>81</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
         <v>81</v>
@@ -720,108 +735,111 @@
         <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
         <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q5" t="s">
         <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
         <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
         <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s">
         <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD5" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
         <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
         <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
         <v>81</v>
@@ -830,250 +848,259 @@
         <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
         <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s">
         <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s">
         <v>81</v>
       </c>
       <c r="AA6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s">
         <v>81</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
         <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
         <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s">
         <v>81</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
         <v>81</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s">
         <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s">
         <v>81</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
         <v>81</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>81</v>
@@ -1082,331 +1109,340 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
         <v>84</v>
       </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA9" t="s">
         <v>81</v>
       </c>
       <c r="AB9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
         <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
         <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
         <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
         <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s">
         <v>81</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s">
         <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
         <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
         <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s">
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Z12" t="s">
         <v>81</v>
@@ -1415,268 +1451,277 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="s">
         <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
         <v>81</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s">
         <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s">
         <v>81</v>
       </c>
       <c r="AB13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s">
         <v>81</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
         <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s">
         <v>81</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
         <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
         <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
         <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
         <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s">
         <v>81</v>
       </c>
       <c r="W15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s">
         <v>81</v>
@@ -1688,493 +1733,511 @@
         <v>83</v>
       </c>
       <c r="AA15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
         <v>81</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s">
         <v>81</v>
       </c>
       <c r="Z16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s">
         <v>81</v>
       </c>
       <c r="AC16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
         <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s">
         <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s">
         <v>82</v>
       </c>
       <c r="AB17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s">
         <v>82</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s">
         <v>81</v>
       </c>
       <c r="W18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s">
         <v>81</v>
       </c>
       <c r="AA18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
         <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W19" t="s">
         <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD19" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
         <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
         <v>81</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s">
         <v>81</v>
       </c>
       <c r="Y20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -2183,49 +2246,49 @@
         <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
         <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" t="s">
         <v>81</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
         <v>81</v>
       </c>
       <c r="T21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s">
         <v>81</v>
@@ -2234,119 +2297,125 @@
         <v>82</v>
       </c>
       <c r="Y21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
         <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s">
         <v>81</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s">
         <v>81</v>
       </c>
       <c r="Z22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -2355,461 +2424,476 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
         <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
         <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" t="s">
-        <v>81</v>
-      </c>
       <c r="R23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s">
         <v>81</v>
       </c>
       <c r="W23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AC23" t="s">
         <v>81</v>
       </c>
       <c r="AD23" t="s">
         <v>82</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
         <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
         <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q24" t="s">
         <v>81</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s">
         <v>81</v>
       </c>
       <c r="U24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s">
         <v>81</v>
       </c>
       <c r="AA24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AC24" t="s">
         <v>81</v>
       </c>
       <c r="AD24" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
         <v>81</v>
       </c>
       <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
         <v>84</v>
       </c>
-      <c r="P25" t="s">
-        <v>80</v>
-      </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" t="s">
         <v>84</v>
       </c>
-      <c r="S25" t="s">
-        <v>80</v>
-      </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X25" t="s">
         <v>81</v>
       </c>
       <c r="Y25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s">
         <v>81</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" t="s">
         <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
         <v>81</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s">
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s">
         <v>81</v>
       </c>
       <c r="W26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s">
         <v>81</v>
       </c>
       <c r="AB26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s">
         <v>81</v>
       </c>
       <c r="AD26" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
         <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
         <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
         <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s">
         <v>81</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
       </c>
       <c r="AA27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s">
         <v>81</v>
       </c>
       <c r="AC27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s">
         <v>81</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
@@ -2818,470 +2902,485 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="s">
         <v>84</v>
       </c>
-      <c r="P28" t="s">
-        <v>82</v>
-      </c>
       <c r="Q28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
+        <v>83</v>
+      </c>
+      <c r="T28" t="s">
         <v>84</v>
       </c>
-      <c r="T28" t="s">
-        <v>82</v>
-      </c>
       <c r="U28" t="s">
+        <v>83</v>
+      </c>
+      <c r="V28" t="s">
         <v>84</v>
       </c>
-      <c r="V28" t="s">
-        <v>82</v>
-      </c>
       <c r="W28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s">
         <v>81</v>
       </c>
       <c r="Z28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC28" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" t="s">
-        <v>82</v>
-      </c>
       <c r="AD28" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
         <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s">
         <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" t="s">
         <v>81</v>
       </c>
       <c r="Q29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s">
         <v>81</v>
       </c>
       <c r="AB29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s">
         <v>81</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O30" t="s">
         <v>81</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s">
         <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="s">
         <v>84</v>
       </c>
-      <c r="AA30" t="s">
-        <v>81</v>
-      </c>
       <c r="AB30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
         <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q31" t="s">
         <v>82</v>
       </c>
       <c r="R31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s">
         <v>82</v>
       </c>
       <c r="X31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s">
         <v>82</v>
       </c>
       <c r="AD31" t="s">
         <v>83</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" t="s">
         <v>84</v>
       </c>
-      <c r="M32" t="s">
-        <v>81</v>
-      </c>
       <c r="N32" t="s">
         <v>82</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T32" t="s">
         <v>82</v>
       </c>
       <c r="U32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W32" t="s">
         <v>81</v>
       </c>
       <c r="X32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s">
         <v>84</v>
       </c>
-      <c r="AA32" t="s">
-        <v>80</v>
-      </c>
       <c r="AB32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD32" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
         <v>81</v>
@@ -3290,37 +3389,37 @@
         <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33" t="s">
         <v>81</v>
       </c>
       <c r="R33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s">
         <v>81</v>
@@ -3329,90 +3428,93 @@
         <v>82</v>
       </c>
       <c r="V33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W33" t="s">
         <v>81</v>
       </c>
       <c r="X33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s">
         <v>81</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
         <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N34" t="s">
         <v>81</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s">
         <v>81</v>
@@ -3421,19 +3523,19 @@
         <v>82</v>
       </c>
       <c r="V34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s">
         <v>81</v>
@@ -3442,140 +3544,146 @@
         <v>82</v>
       </c>
       <c r="AC34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD35" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" t="s">
         <v>81</v>
       </c>
       <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s">
         <v>84</v>
       </c>
-      <c r="H36" t="s">
-        <v>82</v>
-      </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M36" t="s">
         <v>81</v>
@@ -3584,75 +3692,78 @@
         <v>82</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V36" t="s">
         <v>83</v>
       </c>
       <c r="W36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD36" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" t="s">
-        <v>82</v>
-      </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
         <v>81</v>
@@ -3661,22 +3772,22 @@
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s">
         <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N37" t="s">
         <v>81</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s">
         <v>81</v>
@@ -3688,84 +3799,87 @@
         <v>83</v>
       </c>
       <c r="S37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD37" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" t="s">
         <v>81</v>
@@ -3777,75 +3891,78 @@
         <v>83</v>
       </c>
       <c r="R38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD38" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
         <v>84</v>
       </c>
-      <c r="I39" t="s">
-        <v>81</v>
-      </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s">
         <v>81</v>
@@ -3857,363 +3974,375 @@
         <v>83</v>
       </c>
       <c r="N39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD39" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s">
         <v>81</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M40" t="s">
         <v>83</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD40" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s">
         <v>84</v>
       </c>
-      <c r="J41" t="s">
-        <v>82</v>
-      </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M41" t="s">
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD41" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
         <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
         <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB42" t="s">
         <v>83</v>
       </c>
       <c r="AC42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD42" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -4225,247 +4354,256 @@
         <v>83</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD43" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
         <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" t="s">
         <v>83</v>
       </c>
       <c r="N44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD44" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
         <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s">
         <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD45" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -4474,99 +4612,102 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD46" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
@@ -4575,81 +4716,84 @@
         <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s">
         <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD47" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -4658,358 +4802,370 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD48" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD49" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD50" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T51" t="s">
         <v>83</v>
       </c>
       <c r="U51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD51" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.11</t>
+  </si>
+  <si>
     <t>X2018.11.09</t>
   </si>
   <si>
@@ -248,19 +251,19 @@
     <t>SELFIE</t>
   </si>
   <si>
+    <t>EBAERV_</t>
+  </si>
+  <si>
     <t>Doomesticador</t>
   </si>
   <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>EBAERV_</t>
+    <t>0</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>MIA</t>
@@ -417,19 +420,22 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
@@ -438,22 +444,22 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>82</v>
@@ -465,215 +471,221 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
         <v>82</v>
       </c>
       <c r="AD2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
         <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
         <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R4" t="s">
         <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W4" t="s">
         <v>82</v>
@@ -685,39 +697,42 @@
         <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD4" t="s">
         <v>82</v>
       </c>
       <c r="AE4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -726,58 +741,58 @@
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s">
         <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W5" t="s">
         <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s">
         <v>82</v>
@@ -786,27 +801,30 @@
         <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -815,19 +833,19 @@
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
         <v>82</v>
@@ -836,69 +854,72 @@
         <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -922,212 +943,218 @@
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
         <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T7" t="s">
         <v>82</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE8" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
         <v>82</v>
@@ -1136,197 +1163,203 @@
         <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s">
         <v>83</v>
       </c>
       <c r="AA9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC9" t="s">
         <v>82</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s">
         <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
         <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
         <v>82</v>
@@ -1335,16 +1368,16 @@
         <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
         <v>82</v>
@@ -1353,10 +1386,10 @@
         <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
         <v>82</v>
@@ -1365,30 +1398,33 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -1400,13 +1436,13 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
         <v>82</v>
@@ -1415,22 +1451,22 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
         <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V12" t="s">
         <v>82</v>
@@ -1439,60 +1475,63 @@
         <v>82</v>
       </c>
       <c r="X12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
@@ -1501,78 +1540,81 @@
         <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
         <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1593,52 +1635,52 @@
         <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14" t="s">
         <v>82</v>
       </c>
       <c r="X14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z14" t="s">
         <v>83</v>
       </c>
       <c r="AA14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB14" t="s">
         <v>82</v>
@@ -1647,235 +1689,244 @@
         <v>82</v>
       </c>
       <c r="AD14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE15" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
         <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S16" t="s">
         <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s">
         <v>82</v>
       </c>
       <c r="AB16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD16" t="s">
         <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
         <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
         <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -1884,16 +1935,16 @@
         <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R17" t="s">
         <v>82</v>
@@ -1902,10 +1953,10 @@
         <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
         <v>82</v>
@@ -1926,60 +1977,63 @@
         <v>82</v>
       </c>
       <c r="AB17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD17" t="s">
         <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
         <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
         <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
         <v>82</v>
@@ -2003,10 +2057,10 @@
         <v>82</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
         <v>82</v>
@@ -2015,78 +2069,81 @@
         <v>82</v>
       </c>
       <c r="Z18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB18" t="s">
         <v>82</v>
       </c>
       <c r="AC18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE18" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
         <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
         <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
         <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
         <v>82</v>
@@ -2098,117 +2155,120 @@
         <v>82</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE19" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
         <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB20" t="s">
         <v>82</v>
@@ -2220,140 +2280,146 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s">
         <v>83</v>
       </c>
       <c r="AD21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
         <v>82</v>
@@ -2362,81 +2428,84 @@
         <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R22" t="s">
         <v>83</v>
       </c>
       <c r="S22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s">
         <v>82</v>
       </c>
       <c r="AB22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD22" t="s">
         <v>83</v>
       </c>
       <c r="AE22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>82</v>
@@ -2445,28 +2514,28 @@
         <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
         <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S23" t="s">
         <v>82</v>
@@ -2478,10 +2547,10 @@
         <v>82</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X23" t="s">
         <v>82</v>
@@ -2490,238 +2559,247 @@
         <v>82</v>
       </c>
       <c r="Z23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB23" t="s">
         <v>83</v>
       </c>
       <c r="AC23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AD23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE23" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V24" t="s">
         <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AD24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE24" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W25" t="s">
         <v>83</v>
       </c>
       <c r="X25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
@@ -2730,218 +2808,224 @@
         <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE26" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
         <v>84</v>
       </c>
       <c r="Q28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -2950,25 +3034,25 @@
         <v>84</v>
       </c>
       <c r="U28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V28" t="s">
         <v>84</v>
       </c>
       <c r="W28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Z28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s">
         <v>83</v>
@@ -2977,211 +3061,220 @@
         <v>84</v>
       </c>
       <c r="AD28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
         <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R29" t="s">
         <v>82</v>
       </c>
       <c r="S29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s">
         <v>83</v>
       </c>
       <c r="Z29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q30" t="s">
         <v>82</v>
       </c>
       <c r="R30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T30" t="s">
         <v>82</v>
       </c>
       <c r="U30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE30" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>82</v>
@@ -3190,52 +3283,52 @@
         <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
         <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V31" t="s">
         <v>82</v>
@@ -3244,10 +3337,10 @@
         <v>82</v>
       </c>
       <c r="X31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z31" t="s">
         <v>82</v>
@@ -3262,84 +3355,87 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
         <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y32" t="s">
         <v>82</v>
@@ -3348,315 +3444,327 @@
         <v>82</v>
       </c>
       <c r="AA32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AC32" t="s">
         <v>83</v>
       </c>
       <c r="AD32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S33" t="s">
         <v>82</v>
       </c>
       <c r="T33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s">
         <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AE34" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y35" t="s">
         <v>83</v>
       </c>
       <c r="Z35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE35" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>83</v>
@@ -3665,289 +3773,298 @@
         <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s">
         <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R36" t="s">
         <v>83</v>
       </c>
       <c r="S36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE36" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE37" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
         <v>82</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE38" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>82</v>
@@ -3959,173 +4076,179 @@
         <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE39" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s">
         <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M40" t="s">
         <v>83</v>
       </c>
       <c r="N40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE40" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -4140,93 +4263,96 @@
         <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
         <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M41" t="s">
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE41" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -4244,10 +4370,10 @@
         <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s">
         <v>82</v>
@@ -4256,366 +4382,378 @@
         <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE42" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE43" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s">
         <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s">
         <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
         <v>83</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE44" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
         <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE45" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
         <v>82</v>
@@ -4624,84 +4762,87 @@
         <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE46" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
@@ -4710,462 +4851,477 @@
         <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE47" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE48" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE49" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE50" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE51" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -110,150 +110,150 @@
     <t>X2018.09.12</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>mounir</t>
+  </si>
+  <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>☆ Di♡g♡</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>supercell</t>
+  </si>
+  <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
+    <t>bascenso</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>YOSHINZ</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>snowkids</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>filipe</t>
   </si>
   <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>metamox</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>thunder</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>bascenso</t>
-  </si>
-  <si>
-    <t>metamox</t>
+    <t>MASTER PT</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>EBAERV_</t>
+  </si>
+  <si>
+    <t>LCINORC</t>
   </si>
   <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>pjp</t>
-  </si>
-  <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>snowkids</t>
-  </si>
-  <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
-    <t>Welton</t>
-  </si>
-  <si>
-    <t>☆ Di♡g♡</t>
+    <t>Inferno</t>
   </si>
   <si>
     <t>topdosl33ts</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>pedro</t>
-  </si>
-  <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Bruno Lopez</t>
   </si>
   <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
-    <t>YOSHINZ</t>
-  </si>
-  <si>
-    <t>Savler</t>
-  </si>
-  <si>
-    <t>mounir</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>SELFIE</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
-  </si>
-  <si>
     <t>Doomesticador</t>
   </si>
   <si>
@@ -263,10 +263,10 @@
     <t>0</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>MIA</t>
   </si>
   <si>
     <t>-BF</t>
@@ -432,40 +432,40 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
         <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
         <v>82</v>
@@ -474,52 +474,52 @@
         <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
         <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
         <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA2" t="s">
         <v>82</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
         <v>82</v>
       </c>
       <c r="AD2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -527,43 +527,43 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
         <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>82</v>
@@ -572,16 +572,16 @@
         <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
         <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
         <v>83</v>
@@ -593,31 +593,31 @@
         <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -625,97 +625,97 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
         <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
         <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
         <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T4" t="s">
         <v>84</v>
       </c>
       <c r="U4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
         <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s">
         <v>82</v>
       </c>
       <c r="AE4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -723,97 +723,97 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
         <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -824,7 +824,7 @@
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -839,19 +839,19 @@
         <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
         <v>82</v>
@@ -860,49 +860,49 @@
         <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
         <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T6" t="s">
         <v>83</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
         <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s">
         <v>82</v>
       </c>
       <c r="AC6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s">
         <v>82</v>
@@ -911,7 +911,7 @@
         <v>83</v>
       </c>
       <c r="AF6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -919,22 +919,22 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>82</v>
@@ -943,73 +943,73 @@
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AD7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1017,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -1026,88 +1026,88 @@
         <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>82</v>
       </c>
       <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" t="s">
-        <v>83</v>
-      </c>
       <c r="U8" t="s">
         <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
         <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA8" t="s">
         <v>83</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1115,97 +1115,97 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AD9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1213,97 +1213,97 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T10" t="s">
         <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1311,97 +1311,97 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AD11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1412,31 +1412,31 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
         <v>83</v>
@@ -1445,61 +1445,61 @@
         <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T12" t="s">
         <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
         <v>83</v>
       </c>
       <c r="Z12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE12" t="s">
         <v>83</v>
       </c>
       <c r="AF12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1510,94 +1510,94 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
         <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
         <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AD13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1605,19 +1605,19 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>82</v>
@@ -1626,10 +1626,10 @@
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>82</v>
@@ -1638,64 +1638,64 @@
         <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AD14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -1712,25 +1712,25 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
         <v>83</v>
@@ -1742,10 +1742,10 @@
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
         <v>83</v>
@@ -1754,7 +1754,7 @@
         <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
         <v>83</v>
@@ -1763,37 +1763,37 @@
         <v>83</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -1801,25 +1801,25 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>83</v>
@@ -1828,37 +1828,37 @@
         <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
         <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
         <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s">
         <v>83</v>
@@ -1867,13 +1867,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
         <v>82</v>
@@ -1885,10 +1885,10 @@
         <v>83</v>
       </c>
       <c r="AD16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s">
         <v>83</v>
@@ -1899,37 +1899,37 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
         <v>82</v>
@@ -1938,7 +1938,7 @@
         <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
         <v>84</v>
@@ -1947,31 +1947,31 @@
         <v>84</v>
       </c>
       <c r="R17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA17" t="s">
         <v>82</v>
@@ -1983,13 +1983,13 @@
         <v>84</v>
       </c>
       <c r="AD17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -1997,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>83</v>
@@ -2006,55 +2006,55 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
         <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
         <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S18" t="s">
         <v>82</v>
       </c>
       <c r="T18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
         <v>82</v>
@@ -2063,19 +2063,19 @@
         <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC18" t="s">
         <v>82</v>
@@ -2084,10 +2084,10 @@
         <v>83</v>
       </c>
       <c r="AE18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -2095,58 +2095,58 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O19" t="s">
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T19" t="s">
         <v>82</v>
@@ -2155,37 +2155,37 @@
         <v>82</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>84</v>
       </c>
       <c r="Y19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -2193,43 +2193,43 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -2241,40 +2241,40 @@
         <v>83</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s">
         <v>82</v>
       </c>
       <c r="AC20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD20" t="s">
         <v>82</v>
@@ -2283,7 +2283,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -2291,16 +2291,16 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2309,13 +2309,13 @@
         <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
         <v>83</v>
@@ -2327,13 +2327,13 @@
         <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q21" t="s">
         <v>83</v>
@@ -2342,7 +2342,7 @@
         <v>83</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s">
         <v>83</v>
@@ -2351,34 +2351,34 @@
         <v>82</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W21" t="s">
         <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y21" t="s">
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
         <v>82</v>
       </c>
       <c r="AB21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s">
         <v>82</v>
@@ -2392,94 +2392,94 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
         <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
         <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -2487,94 +2487,94 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s">
         <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X23" t="s">
         <v>82</v>
       </c>
       <c r="Y23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC23" t="s">
         <v>84</v>
       </c>
       <c r="AD23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF23" t="s">
         <v>84</v>
@@ -2585,97 +2585,97 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2683,28 +2683,28 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
         <v>84</v>
@@ -2713,64 +2713,64 @@
         <v>84</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>84</v>
       </c>
       <c r="Y25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF25" t="s">
         <v>82</v>
@@ -2787,91 +2787,91 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
         <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
         <v>82</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s">
         <v>83</v>
       </c>
       <c r="AA26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD26" t="s">
         <v>83</v>
       </c>
       <c r="AE26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -2879,7 +2879,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>83</v>
@@ -2888,13 +2888,13 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
         <v>83</v>
@@ -2903,73 +2903,73 @@
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
         <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2977,13 +2977,13 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -2995,25 +2995,25 @@
         <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
         <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
         <v>84</v>
@@ -3022,25 +3022,25 @@
         <v>84</v>
       </c>
       <c r="Q28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R28" t="s">
         <v>84</v>
       </c>
       <c r="S28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T28" t="s">
         <v>84</v>
       </c>
       <c r="U28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s">
         <v>84</v>
       </c>
       <c r="W28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X28" t="s">
         <v>84</v>
@@ -3049,22 +3049,22 @@
         <v>84</v>
       </c>
       <c r="Z28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF28" t="s">
         <v>82</v>
@@ -3075,22 +3075,22 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
@@ -3099,25 +3099,25 @@
         <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" t="s">
         <v>83</v>
@@ -3132,37 +3132,37 @@
         <v>83</v>
       </c>
       <c r="U29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s">
         <v>82</v>
@@ -3173,58 +3173,58 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
         <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R30" t="s">
         <v>82</v>
       </c>
       <c r="S30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T30" t="s">
         <v>82</v>
@@ -3236,34 +3236,34 @@
         <v>83</v>
       </c>
       <c r="W30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC30" t="s">
         <v>82</v>
       </c>
       <c r="AD30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -3274,7 +3274,7 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>82</v>
@@ -3289,19 +3289,19 @@
         <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
         <v>82</v>
@@ -3310,49 +3310,49 @@
         <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s">
         <v>84</v>
       </c>
       <c r="Q31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s">
         <v>84</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s">
         <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB31" t="s">
         <v>82</v>
       </c>
       <c r="AC31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD31" t="s">
         <v>82</v>
@@ -3361,7 +3361,7 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -3369,97 +3369,97 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AF32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -3467,25 +3467,25 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
         <v>82</v>
@@ -3497,25 +3497,25 @@
         <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s">
         <v>82</v>
@@ -3524,7 +3524,7 @@
         <v>82</v>
       </c>
       <c r="U33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s">
         <v>82</v>
@@ -3533,31 +3533,31 @@
         <v>84</v>
       </c>
       <c r="X33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s">
         <v>82</v>
       </c>
       <c r="Z33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -3565,22 +3565,22 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>84</v>
@@ -3589,10 +3589,10 @@
         <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
         <v>84</v>
@@ -3601,16 +3601,16 @@
         <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P34" t="s">
         <v>82</v>
       </c>
       <c r="Q34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s">
         <v>84</v>
@@ -3619,28 +3619,28 @@
         <v>82</v>
       </c>
       <c r="T34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s">
         <v>83</v>
@@ -3649,13 +3649,13 @@
         <v>82</v>
       </c>
       <c r="AD34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -3666,49 +3666,49 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s">
         <v>84</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N35" t="s">
         <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
         <v>84</v>
       </c>
       <c r="Q35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R35" t="s">
         <v>84</v>
@@ -3717,43 +3717,43 @@
         <v>84</v>
       </c>
       <c r="T35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s">
         <v>84</v>
       </c>
       <c r="W35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s">
         <v>84</v>
       </c>
       <c r="Y35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z35" t="s">
         <v>84</v>
       </c>
       <c r="AA35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s">
         <v>84</v>
       </c>
       <c r="AC35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s">
         <v>84</v>
       </c>
       <c r="AE35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -3761,49 +3761,49 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
         <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
         <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N36" t="s">
         <v>83</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q36" t="s">
         <v>83</v>
@@ -3812,37 +3812,37 @@
         <v>83</v>
       </c>
       <c r="S36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD36" t="s">
         <v>86</v>
@@ -3859,7 +3859,7 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -3868,88 +3868,88 @@
         <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M37" t="s">
         <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S37" t="s">
         <v>84</v>
       </c>
       <c r="T37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -3957,10 +3957,10 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>82</v>
@@ -3969,31 +3969,31 @@
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O38" t="s">
         <v>83</v>
@@ -4005,49 +4005,49 @@
         <v>82</v>
       </c>
       <c r="R38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -4055,97 +4055,97 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
         <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N39" t="s">
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -4153,73 +4153,73 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s">
         <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
         <v>84</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s">
         <v>86</v>
@@ -4251,22 +4251,22 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s">
         <v>82</v>
@@ -4275,31 +4275,31 @@
         <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L41" t="s">
         <v>84</v>
       </c>
       <c r="M41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N41" t="s">
         <v>84</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S41" t="s">
         <v>86</v>
@@ -4352,7 +4352,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -4364,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
         <v>82</v>
@@ -4373,64 +4373,64 @@
         <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD42" t="s">
         <v>86</v>
@@ -4447,43 +4447,43 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
         <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M43" t="s">
         <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O43" t="s">
         <v>86</v>
@@ -4545,10 +4545,10 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
         <v>83</v>
@@ -4560,49 +4560,49 @@
         <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
         <v>83</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s">
         <v>83</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V44" t="s">
         <v>86</v>
@@ -4643,43 +4643,43 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O45" t="s">
         <v>86</v>
@@ -4741,22 +4741,22 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
         <v>82</v>
@@ -4765,73 +4765,73 @@
         <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -4845,16 +4845,16 @@
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
         <v>82</v>
@@ -4869,67 +4869,67 @@
         <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -4937,97 +4937,97 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" t="s">
-        <v>86</v>
-      </c>
-      <c r="I48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" t="s">
-        <v>86</v>
-      </c>
-      <c r="K48" t="s">
-        <v>86</v>
-      </c>
-      <c r="L48" t="s">
-        <v>86</v>
-      </c>
-      <c r="M48" t="s">
-        <v>86</v>
-      </c>
-      <c r="N48" t="s">
-        <v>86</v>
-      </c>
-      <c r="O48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P48" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>86</v>
-      </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -5035,97 +5035,97 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
@@ -5133,97 +5133,97 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
@@ -5231,13 +5231,13 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>86</v>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.13</t>
+  </si>
+  <si>
     <t>X2018.11.11</t>
   </si>
   <si>
@@ -131,18 +134,12 @@
     <t>pjp</t>
   </si>
   <si>
-    <t>mounir</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
-    <t>pedro</t>
-  </si>
-  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>CarvaPower.</t>
+  </si>
+  <si>
     <t>topdosl33ts</t>
   </si>
   <si>
@@ -260,19 +260,25 @@
     <t>pwepito</t>
   </si>
   <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>1</t>
+    <t/>
   </si>
   <si>
     <t>-BF</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2</t>
@@ -423,16 +429,19 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -444,49 +453,49 @@
         <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
         <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
         <v>84</v>
@@ -495,134 +504,140 @@
         <v>84</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
         <v>84</v>
       </c>
       <c r="AA2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="s">
         <v>84</v>
       </c>
       <c r="AF2" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
         <v>84</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X3" t="s">
         <v>86</v>
       </c>
       <c r="Y3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -646,37 +661,37 @@
         <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
         <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
         <v>84</v>
@@ -685,271 +700,280 @@
         <v>84</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X4" t="s">
         <v>84</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s">
         <v>86</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s">
         <v>84</v>
@@ -961,96 +985,99 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R7" t="s">
         <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U7" t="s">
         <v>84</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="s">
         <v>86</v>
       </c>
       <c r="AC7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
         <v>84</v>
@@ -1062,57 +1089,60 @@
         <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z8" t="s">
         <v>84</v>
       </c>
       <c r="AA8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -1121,99 +1151,102 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
         <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -1228,7 +1261,7 @@
         <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>84</v>
@@ -1237,84 +1270,87 @@
         <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
         <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Z10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AE10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF10" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -1323,7 +1359,7 @@
         <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>84</v>
@@ -1332,221 +1368,227 @@
         <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AF12" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
         <v>84</v>
@@ -1555,25 +1597,25 @@
         <v>84</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T13" t="s">
         <v>84</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="s">
         <v>84</v>
@@ -1585,69 +1627,72 @@
         <v>84</v>
       </c>
       <c r="AB13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD13" t="s">
         <v>84</v>
       </c>
       <c r="AE13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -1656,37 +1701,37 @@
         <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
         <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W14" t="s">
         <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD14" t="s">
         <v>86</v>
@@ -1695,81 +1740,84 @@
         <v>86</v>
       </c>
       <c r="AF14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
         <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
         <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y15" t="s">
         <v>84</v>
@@ -1778,134 +1826,140 @@
         <v>84</v>
       </c>
       <c r="AA15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y16" t="s">
         <v>84</v>
       </c>
       <c r="Z16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>84</v>
@@ -1914,31 +1968,31 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
         <v>84</v>
@@ -1950,19 +2004,19 @@
         <v>84</v>
       </c>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T17" t="s">
         <v>84</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
         <v>84</v>
@@ -1974,10 +2028,10 @@
         <v>84</v>
       </c>
       <c r="AA17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC17" t="s">
         <v>84</v>
@@ -1986,416 +2040,431 @@
         <v>84</v>
       </c>
       <c r="AE17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y19" t="s">
         <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="V20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Z20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AA20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AC20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AE20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF20" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X21" t="s">
         <v>84</v>
       </c>
       <c r="Y21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC21" t="s">
         <v>84</v>
       </c>
       <c r="AD21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>84</v>
@@ -2404,93 +2473,96 @@
         <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF22" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
@@ -2508,13 +2580,13 @@
         <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L23" t="s">
         <v>84</v>
@@ -2523,13 +2595,13 @@
         <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
         <v>84</v>
@@ -2538,10 +2610,10 @@
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U23" t="s">
         <v>84</v>
@@ -2553,7 +2625,7 @@
         <v>84</v>
       </c>
       <c r="X23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y23" t="s">
         <v>84</v>
@@ -2562,30 +2634,33 @@
         <v>84</v>
       </c>
       <c r="AA23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC23" t="s">
         <v>84</v>
       </c>
       <c r="AD23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="s">
         <v>84</v>
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
@@ -2594,132 +2669,135 @@
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
         <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="s">
         <v>86</v>
       </c>
       <c r="AB24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE24" t="s">
         <v>86</v>
       </c>
       <c r="AF24" t="s">
         <v>86</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
         <v>84</v>
@@ -2728,19 +2806,19 @@
         <v>84</v>
       </c>
       <c r="Q25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
         <v>84</v>
       </c>
       <c r="U25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V25" t="s">
         <v>84</v>
@@ -2752,78 +2830,81 @@
         <v>84</v>
       </c>
       <c r="Y25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB25" t="s">
         <v>84</v>
       </c>
       <c r="AC25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE25" t="s">
         <v>84</v>
       </c>
       <c r="AF25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
         <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M26" t="s">
         <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q26" t="s">
         <v>84</v>
@@ -2832,16 +2913,16 @@
         <v>84</v>
       </c>
       <c r="S26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
         <v>84</v>
       </c>
       <c r="U26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W26" t="s">
         <v>84</v>
@@ -2850,93 +2931,96 @@
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="s">
         <v>84</v>
       </c>
       <c r="AC26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" t="s">
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V27" t="s">
         <v>84</v>
@@ -2945,770 +3029,794 @@
         <v>84</v>
       </c>
       <c r="X27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AC27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD27" t="s">
         <v>84</v>
       </c>
       <c r="AE27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R28" t="s">
         <v>84</v>
       </c>
       <c r="S28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T28" t="s">
         <v>84</v>
       </c>
       <c r="U28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y28" t="s">
         <v>84</v>
       </c>
       <c r="Z28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
         <v>84</v>
       </c>
       <c r="AB28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U29" t="s">
         <v>84</v>
       </c>
       <c r="V29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB29" t="s">
         <v>84</v>
       </c>
       <c r="AC29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="V30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Z30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AD30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AE30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X31" t="s">
         <v>84</v>
       </c>
       <c r="Y31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE31" t="s">
         <v>84</v>
       </c>
       <c r="AF31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
         <v>86</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC32" t="s">
         <v>86</v>
       </c>
       <c r="AD32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W33" t="s">
         <v>84</v>
       </c>
       <c r="X33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA33" t="s">
         <v>84</v>
       </c>
       <c r="AB33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE33" t="s">
         <v>84</v>
       </c>
       <c r="AF33" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
         <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AD34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF34" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
         <v>84</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R35" t="s">
         <v>84</v>
@@ -3717,16 +3825,16 @@
         <v>84</v>
       </c>
       <c r="T35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X35" t="s">
         <v>84</v>
@@ -3738,128 +3846,134 @@
         <v>84</v>
       </c>
       <c r="AA35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB35" t="s">
         <v>84</v>
       </c>
       <c r="AC35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD35" t="s">
         <v>84</v>
       </c>
       <c r="AE35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF35" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="T36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD36" t="s">
         <v>86</v>
       </c>
       <c r="AE36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -3868,10 +3982,10 @@
         <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -3880,25 +3994,25 @@
         <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s">
         <v>84</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N37" t="s">
         <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s">
         <v>84</v>
@@ -3913,48 +4027,51 @@
         <v>84</v>
       </c>
       <c r="T37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V37" t="s">
         <v>84</v>
       </c>
       <c r="W37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y37" t="s">
         <v>84</v>
       </c>
       <c r="Z37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA37" t="s">
         <v>84</v>
       </c>
       <c r="AB37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC37" t="s">
         <v>84</v>
       </c>
       <c r="AD37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE37" t="s">
         <v>84</v>
       </c>
       <c r="AF37" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
@@ -3963,99 +4080,102 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
         <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X38" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Y38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z38" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AA38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE38" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF38" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
@@ -4064,7 +4184,7 @@
         <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>84</v>
@@ -4076,10 +4196,10 @@
         <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
         <v>84</v>
@@ -4103,152 +4223,158 @@
         <v>84</v>
       </c>
       <c r="R39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="U39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Z39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF39" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
         <v>84</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="U40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="V40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W40" t="s">
         <v>87</v>
       </c>
       <c r="X40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF40" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
@@ -4257,28 +4383,28 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
         <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L41" t="s">
         <v>84</v>
@@ -4287,105 +4413,108 @@
         <v>84</v>
       </c>
       <c r="N41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF41" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O42" t="s">
         <v>86</v>
@@ -4412,39 +4541,42 @@
         <v>86</v>
       </c>
       <c r="W42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF42" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -4453,200 +4585,206 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O43" t="s">
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF43" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD44" t="s">
         <v>86</v>
       </c>
       <c r="AE44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF44" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
         <v>84</v>
@@ -4655,221 +4793,227 @@
         <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L45" t="s">
         <v>84</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF45" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="S46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF46" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s">
         <v>84</v>
@@ -4884,19 +5028,19 @@
         <v>84</v>
       </c>
       <c r="Q47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="S47" t="s">
         <v>84</v>
       </c>
       <c r="T47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="V47" t="s">
         <v>84</v>
@@ -4908,19 +5052,19 @@
         <v>84</v>
       </c>
       <c r="Y47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z47" t="s">
         <v>84</v>
       </c>
       <c r="AA47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD47" t="s">
         <v>84</v>
@@ -4930,398 +5074,514 @@
       </c>
       <c r="AF47" t="s">
         <v>84</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF48" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF49" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="T50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="V50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Z50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AA50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AC50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AE50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AF50" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+      <c r="K51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L51" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" t="s">
+        <v>87</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>87</v>
+      </c>
+      <c r="R51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S51" t="s">
+        <v>87</v>
+      </c>
+      <c r="T51" t="s">
+        <v>87</v>
+      </c>
+      <c r="U51" t="s">
+        <v>87</v>
+      </c>
+      <c r="V51" t="s">
+        <v>87</v>
+      </c>
+      <c r="W51" t="s">
+        <v>87</v>
+      </c>
+      <c r="X51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
         <v>83</v>
       </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" t="s">
-        <v>86</v>
-      </c>
-      <c r="K51" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" t="s">
-        <v>86</v>
-      </c>
-      <c r="M51" t="s">
-        <v>86</v>
-      </c>
-      <c r="N51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O51" t="s">
-        <v>86</v>
-      </c>
-      <c r="P51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>86</v>
-      </c>
-      <c r="R51" t="s">
-        <v>86</v>
-      </c>
-      <c r="S51" t="s">
-        <v>86</v>
-      </c>
-      <c r="T51" t="s">
-        <v>86</v>
-      </c>
-      <c r="U51" t="s">
-        <v>86</v>
-      </c>
-      <c r="V51" t="s">
-        <v>86</v>
-      </c>
-      <c r="W51" t="s">
-        <v>86</v>
-      </c>
-      <c r="X51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>86</v>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L52" t="s">
+        <v>87</v>
+      </c>
+      <c r="M52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" t="s">
+        <v>87</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>87</v>
+      </c>
+      <c r="R52" t="s">
+        <v>87</v>
+      </c>
+      <c r="S52" t="s">
+        <v>87</v>
+      </c>
+      <c r="T52" t="s">
+        <v>87</v>
+      </c>
+      <c r="U52" t="s">
+        <v>87</v>
+      </c>
+      <c r="V52" t="s">
+        <v>87</v>
+      </c>
+      <c r="W52" t="s">
+        <v>87</v>
+      </c>
+      <c r="X52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.15</t>
+  </si>
+  <si>
     <t>X2018.11.13</t>
   </si>
   <si>
@@ -113,172 +116,169 @@
     <t>X2018.09.12</t>
   </si>
   <si>
+    <t>☆ Di♡g♡</t>
+  </si>
+  <si>
+    <t>bascenso</t>
+  </si>
+  <si>
+    <t>Bruno Lopez</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>CarvaPower.</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>Doomesticador</t>
+  </si>
+  <si>
+    <t>EBAERV_</t>
+  </si>
+  <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
+    <t>faneca</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>MASTER PT</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>metamox</t>
+  </si>
+  <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>pwepito</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>snowkids</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>supercell</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>YOSHINZ</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>pjp</t>
-  </si>
-  <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
-    <t>☆ Di♡g♡</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>supercell</t>
-  </si>
-  <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
-    <t>bascenso</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>YOSHINZ</t>
-  </si>
-  <si>
-    <t>thunder</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>snowkids</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>SELFIE</t>
-  </si>
-  <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>metamox</t>
-  </si>
-  <si>
-    <t>faneca</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>Welton</t>
-  </si>
-  <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>Savler</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
-  </si>
-  <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>CarvaPower.</t>
-  </si>
-  <si>
-    <t>topdosl33ts</t>
-  </si>
-  <si>
-    <t>Bruno Lopez</t>
-  </si>
-  <si>
-    <t>Doomesticador</t>
-  </si>
-  <si>
-    <t>pwepito</t>
-  </si>
-  <si>
-    <t>RubenVski</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>-BF</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>-BF</t>
   </si>
   <si>
     <t>2</t>
@@ -432,19 +432,22 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>84</v>
@@ -456,34 +459,34 @@
         <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
         <v>84</v>
@@ -492,10 +495,10 @@
         <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
         <v>84</v>
@@ -504,10 +507,10 @@
         <v>84</v>
       </c>
       <c r="X2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
         <v>84</v>
@@ -516,75 +519,78 @@
         <v>84</v>
       </c>
       <c r="AB2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
         <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF2" t="s">
         <v>84</v>
       </c>
       <c r="AG2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
         <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
         <v>84</v>
@@ -593,96 +599,99 @@
         <v>84</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
         <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="s">
         <v>85</v>
@@ -694,22 +703,22 @@
         <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
         <v>85</v>
       </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z4" t="s">
         <v>85</v>
@@ -718,10 +727,10 @@
         <v>84</v>
       </c>
       <c r="AB4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD4" t="s">
         <v>85</v>
@@ -730,60 +739,63 @@
         <v>85</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
         <v>87</v>
@@ -810,7 +822,7 @@
         <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z5" t="s">
         <v>87</v>
@@ -822,7 +834,7 @@
         <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s">
         <v>87</v>
@@ -831,232 +843,241 @@
         <v>87</v>
       </c>
       <c r="AF5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" t="s">
-        <v>85</v>
-      </c>
       <c r="T6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s">
         <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>85</v>
@@ -1080,34 +1101,34 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
         <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X8" t="s">
         <v>85</v>
@@ -1116,13 +1137,13 @@
         <v>85</v>
       </c>
       <c r="Z8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
         <v>85</v>
@@ -1134,119 +1155,125 @@
         <v>85</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
         <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
         <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG9" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -1261,7 +1288,7 @@
         <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>84</v>
@@ -1270,19 +1297,19 @@
         <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
         <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
         <v>87</v>
@@ -1291,13 +1318,13 @@
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T10" t="s">
         <v>87</v>
@@ -1306,117 +1333,120 @@
         <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
         <v>87</v>
       </c>
       <c r="AD10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE10" t="s">
         <v>87</v>
       </c>
       <c r="AF10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
         <v>89</v>
       </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U11" t="s">
         <v>84</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z11" t="s">
         <v>84</v>
@@ -1428,45 +1458,48 @@
         <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AE11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG11" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
         <v>85</v>
@@ -1475,10 +1508,10 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -1487,31 +1520,31 @@
         <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
         <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X12" t="s">
         <v>87</v>
@@ -1523,7 +1556,7 @@
         <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="s">
         <v>87</v>
@@ -1541,81 +1574,84 @@
         <v>87</v>
       </c>
       <c r="AG12" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
         <v>84</v>
@@ -1624,333 +1660,345 @@
         <v>84</v>
       </c>
       <c r="AA13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG14" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
         <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
         <v>85</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG15" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" t="s">
-        <v>86</v>
-      </c>
-      <c r="T16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>85</v>
-      </c>
       <c r="AE16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF16" t="s">
         <v>84</v>
       </c>
       <c r="AG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -1959,7 +2007,7 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>84</v>
@@ -1968,37 +2016,37 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
         <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R17" t="s">
         <v>84</v>
@@ -2010,13 +2058,13 @@
         <v>84</v>
       </c>
       <c r="U17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
         <v>84</v>
@@ -2037,266 +2085,275 @@
         <v>84</v>
       </c>
       <c r="AD17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE17" t="s">
         <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG17" t="s">
         <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y19" t="s">
         <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB19" t="s">
         <v>85</v>
       </c>
       <c r="AC19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF19" t="s">
         <v>85</v>
       </c>
       <c r="AG19" t="s">
         <v>85</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" t="s">
-        <v>84</v>
-      </c>
       <c r="P20" t="s">
         <v>84</v>
       </c>
@@ -2304,43 +2361,43 @@
         <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
         <v>87</v>
       </c>
       <c r="Y20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA20" t="s">
         <v>87</v>
       </c>
       <c r="AB20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE20" t="s">
         <v>87</v>
@@ -2349,24 +2406,27 @@
         <v>87</v>
       </c>
       <c r="AG20" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
@@ -2378,90 +2438,93 @@
         <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
         <v>84</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s">
         <v>85</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
@@ -2470,49 +2533,49 @@
         <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
         <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U22" t="s">
         <v>87</v>
@@ -2521,42 +2584,45 @@
         <v>87</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X22" t="s">
         <v>87</v>
       </c>
       <c r="Y22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -2568,10 +2634,10 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
         <v>84</v>
@@ -2580,7 +2646,7 @@
         <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
         <v>84</v>
@@ -2589,61 +2655,61 @@
         <v>84</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R23" t="s">
         <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V23" t="s">
         <v>84</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X23" t="s">
         <v>84</v>
       </c>
       <c r="Y23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Z23" t="s">
         <v>84</v>
       </c>
       <c r="AA23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE23" t="s">
         <v>84</v>
@@ -2653,17 +2719,20 @@
       </c>
       <c r="AG23" t="s">
         <v>85</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
@@ -2672,10 +2741,10 @@
         <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
         <v>84</v>
@@ -2684,105 +2753,108 @@
         <v>85</v>
       </c>
       <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
         <v>86</v>
       </c>
-      <c r="K24" t="s">
-        <v>85</v>
-      </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q24" t="s">
         <v>85</v>
       </c>
       <c r="R24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
         <v>85</v>
@@ -2800,147 +2872,150 @@
         <v>84</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG25" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V26" t="s">
         <v>85</v>
       </c>
       <c r="W26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="s">
         <v>85</v>
       </c>
       <c r="AB26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC26" t="s">
         <v>85</v>
@@ -2952,30 +3027,33 @@
         <v>85</v>
       </c>
       <c r="AF26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG26" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -2984,22 +3062,22 @@
         <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
         <v>84</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" t="s">
         <v>84</v>
@@ -3008,191 +3086,197 @@
         <v>85</v>
       </c>
       <c r="Q27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
         <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T28" t="s">
         <v>84</v>
       </c>
       <c r="U28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD28" t="s">
         <v>85</v>
       </c>
       <c r="AE28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
@@ -3201,233 +3285,239 @@
         <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
       <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
         <v>86</v>
       </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" t="s">
-        <v>87</v>
-      </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
         <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q30" t="s">
         <v>87</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O31" t="s">
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="W31" t="s">
         <v>85</v>
@@ -3436,13 +3526,13 @@
         <v>84</v>
       </c>
       <c r="Y31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB31" t="s">
         <v>84</v>
@@ -3451,375 +3541,387 @@
         <v>85</v>
       </c>
       <c r="AD31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S33" t="s">
         <v>84</v>
       </c>
       <c r="T33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X33" t="s">
         <v>85</v>
       </c>
       <c r="Y33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z33" t="s">
         <v>84</v>
       </c>
       <c r="AA33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG33" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF34" t="s">
         <v>87</v>
       </c>
       <c r="AG34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
         <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
         <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O35" t="s">
         <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q35" t="s">
         <v>84</v>
       </c>
       <c r="R35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S35" t="s">
         <v>84</v>
@@ -3831,7 +3933,7 @@
         <v>84</v>
       </c>
       <c r="V35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W35" t="s">
         <v>84</v>
@@ -3843,7 +3945,7 @@
         <v>84</v>
       </c>
       <c r="Z35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA35" t="s">
         <v>84</v>
@@ -3852,24 +3954,27 @@
         <v>84</v>
       </c>
       <c r="AC35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD35" t="s">
         <v>84</v>
       </c>
       <c r="AE35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF35" t="s">
         <v>84</v>
       </c>
       <c r="AG35" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
@@ -3878,105 +3983,108 @@
         <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
         <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S36" t="s">
         <v>88</v>
       </c>
       <c r="T36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG36" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>84</v>
@@ -3985,7 +4093,7 @@
         <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -3997,10 +4105,10 @@
         <v>84</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s">
         <v>84</v>
@@ -4024,167 +4132,173 @@
         <v>84</v>
       </c>
       <c r="S37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T37" t="s">
         <v>85</v>
       </c>
       <c r="U37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG37" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
         <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
         <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG38" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
         <v>84</v>
@@ -4193,43 +4307,43 @@
         <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s">
         <v>84</v>
       </c>
       <c r="Q39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U39" t="s">
         <v>87</v>
@@ -4244,120 +4358,123 @@
         <v>87</v>
       </c>
       <c r="Y39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
         <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s">
         <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N40" t="s">
         <v>84</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W40" t="s">
         <v>87</v>
       </c>
       <c r="X40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB40" t="s">
         <v>87</v>
       </c>
       <c r="AC40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD40" t="s">
         <v>87</v>
@@ -4369,182 +4486,188 @@
         <v>87</v>
       </c>
       <c r="AG40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
         <v>84</v>
       </c>
       <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" t="s">
+        <v>85</v>
+      </c>
+      <c r="O41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" t="s">
         <v>86</v>
       </c>
-      <c r="G41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="Q41" t="s">
+        <v>87</v>
+      </c>
+      <c r="R41" t="s">
+        <v>85</v>
+      </c>
+      <c r="S41" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41" t="s">
+        <v>85</v>
+      </c>
+      <c r="V41" t="s">
+        <v>85</v>
+      </c>
+      <c r="W41" t="s">
+        <v>87</v>
+      </c>
+      <c r="X41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD41" t="s">
         <v>86</v>
       </c>
-      <c r="I41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L41" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" t="s">
-        <v>84</v>
-      </c>
-      <c r="N41" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" t="s">
-        <v>86</v>
-      </c>
-      <c r="P41" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>87</v>
-      </c>
-      <c r="R41" t="s">
-        <v>87</v>
-      </c>
-      <c r="S41" t="s">
-        <v>87</v>
-      </c>
-      <c r="T41" t="s">
-        <v>87</v>
-      </c>
-      <c r="U41" t="s">
-        <v>87</v>
-      </c>
-      <c r="V41" t="s">
-        <v>87</v>
-      </c>
-      <c r="W41" t="s">
-        <v>87</v>
-      </c>
-      <c r="X41" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>87</v>
-      </c>
       <c r="AE41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s">
         <v>86</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W42" t="s">
         <v>87</v>
       </c>
       <c r="X42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y42" t="s">
         <v>87</v>
@@ -4553,7 +4676,7 @@
         <v>87</v>
       </c>
       <c r="AA42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB42" t="s">
         <v>87</v>
@@ -4565,27 +4688,30 @@
         <v>87</v>
       </c>
       <c r="AE42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG42" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>84</v>
@@ -4597,212 +4723,218 @@
         <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s">
         <v>84</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s">
         <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V44" t="s">
         <v>84</v>
       </c>
       <c r="W44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AB44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC44" t="s">
         <v>85</v>
       </c>
       <c r="AD44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG44" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
         <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s">
         <v>84</v>
@@ -4811,10 +4943,10 @@
         <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N45" t="s">
         <v>84</v>
@@ -4826,22 +4958,22 @@
         <v>84</v>
       </c>
       <c r="Q45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T45" t="s">
         <v>84</v>
       </c>
       <c r="U45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W45" t="s">
         <v>84</v>
@@ -4853,7 +4985,7 @@
         <v>84</v>
       </c>
       <c r="Z45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA45" t="s">
         <v>84</v>
@@ -4862,10 +4994,10 @@
         <v>84</v>
       </c>
       <c r="AC45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE45" t="s">
         <v>84</v>
@@ -4874,173 +5006,179 @@
         <v>84</v>
       </c>
       <c r="AG45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG46" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s">
         <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
         <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
         <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P47" t="s">
         <v>84</v>
       </c>
       <c r="Q47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="T47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V47" t="s">
         <v>84</v>
@@ -5049,16 +5187,16 @@
         <v>84</v>
       </c>
       <c r="X47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z47" t="s">
         <v>84</v>
       </c>
       <c r="AA47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB47" t="s">
         <v>84</v>
@@ -5070,354 +5208,366 @@
         <v>84</v>
       </c>
       <c r="AE47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG47" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s">
         <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T48" t="s">
         <v>86</v>
       </c>
       <c r="U48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG48" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG49" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" t="s">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s">
-        <v>87</v>
-      </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L50" t="s">
         <v>87</v>
       </c>
       <c r="M50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O50" t="s">
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R50" t="s">
         <v>87</v>
       </c>
       <c r="S50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T50" t="s">
         <v>87</v>
       </c>
       <c r="U50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s">
         <v>87</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M51" t="s">
         <v>87</v>
@@ -5429,7 +5579,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q51" t="s">
         <v>87</v>
@@ -5438,10 +5588,10 @@
         <v>87</v>
       </c>
       <c r="S51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U51" t="s">
         <v>87</v>
@@ -5450,137 +5600,39 @@
         <v>87</v>
       </c>
       <c r="W51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z51" t="s">
         <v>87</v>
       </c>
       <c r="AA51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC51" t="s">
         <v>87</v>
       </c>
       <c r="AD51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE51" t="s">
         <v>87</v>
       </c>
       <c r="AF51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" t="s">
-        <v>87</v>
-      </c>
-      <c r="J52" t="s">
-        <v>87</v>
-      </c>
-      <c r="K52" t="s">
-        <v>87</v>
-      </c>
-      <c r="L52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M52" t="s">
-        <v>87</v>
-      </c>
-      <c r="N52" t="s">
-        <v>87</v>
-      </c>
-      <c r="O52" t="s">
-        <v>87</v>
-      </c>
-      <c r="P52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>87</v>
-      </c>
-      <c r="R52" t="s">
-        <v>87</v>
-      </c>
-      <c r="S52" t="s">
-        <v>87</v>
-      </c>
-      <c r="T52" t="s">
-        <v>87</v>
-      </c>
-      <c r="U52" t="s">
-        <v>87</v>
-      </c>
-      <c r="V52" t="s">
-        <v>87</v>
-      </c>
-      <c r="W52" t="s">
-        <v>87</v>
-      </c>
-      <c r="X52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s">
         <v>87</v>
       </c>
     </row>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -122,9 +122,6 @@
     <t>bascenso</t>
   </si>
   <si>
-    <t>Bruno Lopez</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
@@ -269,10 +269,10 @@
     <t>1</t>
   </si>
   <si>
+    <t>-BF</t>
+  </si>
+  <si>
     <t>MIA</t>
-  </si>
-  <si>
-    <t>-BF</t>
   </si>
   <si>
     <t>0</t>
@@ -649,103 +649,103 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -753,82 +753,82 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
         <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
-        <v>87</v>
-      </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
         <v>84</v>
       </c>
       <c r="Z5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB5" t="s">
         <v>87</v>
@@ -837,10 +837,10 @@
         <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF5" t="s">
         <v>84</v>
@@ -849,7 +849,7 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -860,100 +860,100 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -961,103 +961,103 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1065,103 +1065,103 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1175,97 +1175,97 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1276,73 +1276,73 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
         <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
         <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
         <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
         <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z10" t="s">
         <v>84</v>
@@ -1351,7 +1351,7 @@
         <v>84</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
         <v>87</v>
@@ -1366,7 +1366,7 @@
         <v>84</v>
       </c>
       <c r="AG10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s">
         <v>87</v>
@@ -1380,13 +1380,13 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -1398,10 +1398,10 @@
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
         <v>87</v>
@@ -1410,10 +1410,10 @@
         <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
         <v>87</v>
@@ -1422,58 +1422,58 @@
         <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y11" t="s">
         <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC11" t="s">
         <v>87</v>
       </c>
       <c r="AD11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE11" t="s">
         <v>87</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -1484,13 +1484,13 @@
         <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -1502,82 +1502,82 @@
         <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
         <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
         <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD12" t="s">
         <v>87</v>
       </c>
       <c r="AE12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF12" t="s">
         <v>87</v>
       </c>
       <c r="AG12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1588,46 +1588,46 @@
         <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
         <v>87</v>
@@ -1636,28 +1636,28 @@
         <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
         <v>84</v>
       </c>
       <c r="Z13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA13" t="s">
         <v>87</v>
@@ -1666,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD13" t="s">
         <v>87</v>
@@ -1681,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="AH13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1698,94 +1698,94 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -1793,103 +1793,103 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
         <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>87</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD15" t="s">
         <v>85</v>
       </c>
-      <c r="O15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R15" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>88</v>
-      </c>
-      <c r="V15" t="s">
-        <v>88</v>
-      </c>
-      <c r="W15" t="s">
-        <v>88</v>
-      </c>
-      <c r="X15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>88</v>
-      </c>
       <c r="AE15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +1903,7 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>84</v>
@@ -1918,46 +1918,46 @@
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s">
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
         <v>84</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R16" t="s">
         <v>84</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U16" t="s">
         <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s">
         <v>87</v>
@@ -1981,19 +1981,19 @@
         <v>84</v>
       </c>
       <c r="AD16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG16" t="s">
         <v>84</v>
       </c>
       <c r="AH16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -2001,13 +2001,13 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>84</v>
@@ -2019,85 +2019,85 @@
         <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
         <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -2108,100 +2108,100 @@
         <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -2221,7 +2221,7 @@
         <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
@@ -2233,49 +2233,49 @@
         <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" t="s">
         <v>85</v>
       </c>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" t="s">
-        <v>84</v>
-      </c>
       <c r="P19" t="s">
         <v>84</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
         <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V19" t="s">
         <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="s">
         <v>84</v>
@@ -2287,25 +2287,25 @@
         <v>87</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -2322,7 +2322,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -2334,19 +2334,19 @@
         <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
         <v>84</v>
@@ -2355,61 +2355,61 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -2417,7 +2417,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -2426,94 +2426,94 @@
         <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
         <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
         <v>84</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2530,43 +2530,43 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
         <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
         <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R22" t="s">
         <v>84</v>
@@ -2578,34 +2578,34 @@
         <v>84</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Z22" t="s">
         <v>84</v>
       </c>
       <c r="AA22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB22" t="s">
         <v>84</v>
       </c>
       <c r="AC22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE22" t="s">
         <v>84</v>
@@ -2614,7 +2614,7 @@
         <v>84</v>
       </c>
       <c r="AG22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s">
         <v>87</v>
@@ -2625,43 +2625,43 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
         <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O23" t="s">
         <v>87</v>
@@ -2670,40 +2670,40 @@
         <v>87</v>
       </c>
       <c r="Q23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC23" t="s">
         <v>87</v>
@@ -2712,16 +2712,16 @@
         <v>87</v>
       </c>
       <c r="AE23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -2729,103 +2729,103 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
         <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O24" t="s">
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2833,94 +2833,94 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
         <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O25" t="s">
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF25" t="s">
         <v>88</v>
@@ -2937,10 +2937,10 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>87</v>
@@ -2952,10 +2952,10 @@
         <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
         <v>87</v>
@@ -2964,7 +2964,7 @@
         <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
         <v>84</v>
@@ -2976,55 +2976,55 @@
         <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF26" t="s">
         <v>88</v>
@@ -3047,13 +3047,13 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -3065,10 +3065,10 @@
         <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L27" t="s">
         <v>84</v>
@@ -3077,67 +3077,67 @@
         <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3145,103 +3145,103 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -3249,25 +3249,25 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
         <v>84</v>
@@ -3279,46 +3279,46 @@
         <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z29" t="s">
         <v>88</v>
@@ -3353,103 +3353,103 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
         <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P30" t="s">
         <v>84</v>
       </c>
       <c r="Q30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T30" t="s">
         <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="W30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -3457,103 +3457,103 @@
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -3561,103 +3561,103 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
+      <c r="K32" t="s">
         <v>85</v>
       </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" t="s">
-        <v>88</v>
-      </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -3665,103 +3665,103 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -3796,7 +3796,7 @@
         <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s">
         <v>84</v>
@@ -3808,7 +3808,7 @@
         <v>87</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s">
         <v>84</v>
@@ -3820,7 +3820,7 @@
         <v>87</v>
       </c>
       <c r="S34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T34" t="s">
         <v>87</v>
@@ -3829,7 +3829,7 @@
         <v>87</v>
       </c>
       <c r="V34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W34" t="s">
         <v>84</v>
@@ -3873,31 +3873,31 @@
         <v>67</v>
       </c>
       <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s">
-        <v>86</v>
-      </c>
       <c r="I35" t="s">
         <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s">
         <v>87</v>
@@ -3977,7 +3977,7 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -4135,7 +4135,7 @@
         <v>87</v>
       </c>
       <c r="T37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U37" t="s">
         <v>88</v>
@@ -4185,22 +4185,22 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
         <v>88</v>
@@ -4313,7 +4313,7 @@
         <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
         <v>87</v>
@@ -4322,7 +4322,7 @@
         <v>87</v>
       </c>
       <c r="M39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
         <v>87</v>
@@ -4334,7 +4334,7 @@
         <v>84</v>
       </c>
       <c r="Q39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R39" t="s">
         <v>84</v>
@@ -4361,7 +4361,7 @@
         <v>89</v>
       </c>
       <c r="Z39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA39" t="s">
         <v>88</v>
@@ -4509,85 +4509,85 @@
         <v>84</v>
       </c>
       <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="s">
         <v>85</v>
       </c>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="Q41" t="s">
+        <v>87</v>
+      </c>
+      <c r="R41" t="s">
+        <v>86</v>
+      </c>
+      <c r="S41" t="s">
+        <v>86</v>
+      </c>
+      <c r="T41" t="s">
+        <v>86</v>
+      </c>
+      <c r="U41" t="s">
+        <v>86</v>
+      </c>
+      <c r="V41" t="s">
+        <v>86</v>
+      </c>
+      <c r="W41" t="s">
+        <v>87</v>
+      </c>
+      <c r="X41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD41" t="s">
         <v>85</v>
       </c>
-      <c r="I41" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" t="s">
-        <v>85</v>
-      </c>
-      <c r="N41" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" t="s">
-        <v>85</v>
-      </c>
-      <c r="P41" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>87</v>
-      </c>
-      <c r="R41" t="s">
-        <v>85</v>
-      </c>
-      <c r="S41" t="s">
-        <v>85</v>
-      </c>
-      <c r="T41" t="s">
-        <v>85</v>
-      </c>
-      <c r="U41" t="s">
-        <v>85</v>
-      </c>
-      <c r="V41" t="s">
-        <v>85</v>
-      </c>
-      <c r="W41" t="s">
-        <v>87</v>
-      </c>
-      <c r="X41" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>86</v>
-      </c>
       <c r="AE41" t="s">
         <v>84</v>
       </c>
       <c r="AF41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s">
         <v>87</v>
@@ -4604,31 +4604,31 @@
         <v>84</v>
       </c>
       <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J42" t="s">
-        <v>86</v>
-      </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s">
         <v>84</v>
@@ -4637,28 +4637,28 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q42" t="s">
         <v>87</v>
       </c>
       <c r="R42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T42" t="s">
         <v>87</v>
       </c>
       <c r="U42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V42" t="s">
         <v>87</v>
@@ -4667,7 +4667,7 @@
         <v>87</v>
       </c>
       <c r="X42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y42" t="s">
         <v>87</v>
@@ -4688,16 +4688,16 @@
         <v>87</v>
       </c>
       <c r="AE42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -4738,7 +4738,7 @@
         <v>84</v>
       </c>
       <c r="M43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N43" t="s">
         <v>88</v>
@@ -4890,7 +4890,7 @@
         <v>87</v>
       </c>
       <c r="AC44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD44" t="s">
         <v>88</v>
@@ -5104,7 +5104,7 @@
         <v>87</v>
       </c>
       <c r="AE46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF46" t="s">
         <v>87</v>
@@ -5130,7 +5130,7 @@
         <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
@@ -5145,7 +5145,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s">
         <v>84</v>
@@ -5157,7 +5157,7 @@
         <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O47" t="s">
         <v>87</v>
@@ -5175,7 +5175,7 @@
         <v>89</v>
       </c>
       <c r="T47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U47" t="s">
         <v>87</v>
@@ -5190,7 +5190,7 @@
         <v>87</v>
       </c>
       <c r="Y47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z47" t="s">
         <v>84</v>
@@ -5211,7 +5211,7 @@
         <v>87</v>
       </c>
       <c r="AF47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG47" t="s">
         <v>84</v>
@@ -5231,7 +5231,7 @@
         <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
         <v>84</v>
@@ -5240,17 +5240,17 @@
         <v>87</v>
       </c>
       <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" t="s">
         <v>85</v>
       </c>
-      <c r="H48" t="s">
-        <v>84</v>
-      </c>
-      <c r="I48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" t="s">
-        <v>86</v>
-      </c>
       <c r="K48" t="s">
         <v>87</v>
       </c>
@@ -5270,17 +5270,17 @@
         <v>87</v>
       </c>
       <c r="Q48" t="s">
+        <v>86</v>
+      </c>
+      <c r="R48" t="s">
+        <v>86</v>
+      </c>
+      <c r="S48" t="s">
+        <v>87</v>
+      </c>
+      <c r="T48" t="s">
         <v>85</v>
       </c>
-      <c r="R48" t="s">
-        <v>85</v>
-      </c>
-      <c r="S48" t="s">
-        <v>87</v>
-      </c>
-      <c r="T48" t="s">
-        <v>86</v>
-      </c>
       <c r="U48" t="s">
         <v>87</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>84</v>
       </c>
       <c r="AE48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF48" t="s">
         <v>84</v>
@@ -5321,7 +5321,7 @@
         <v>87</v>
       </c>
       <c r="AH48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
@@ -5329,49 +5329,49 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
         <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
         <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s">
         <v>84</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q49" t="s">
         <v>84</v>
@@ -5380,19 +5380,19 @@
         <v>84</v>
       </c>
       <c r="S49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U49" t="s">
         <v>84</v>
       </c>
       <c r="V49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X49" t="s">
         <v>84</v>
@@ -5433,28 +5433,28 @@
         <v>82</v>
       </c>
       <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s">
-        <v>86</v>
-      </c>
       <c r="I50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s">
         <v>84</v>
@@ -5466,7 +5466,7 @@
         <v>87</v>
       </c>
       <c r="M50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
         <v>84</v>
@@ -5490,7 +5490,7 @@
         <v>87</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V50" t="s">
         <v>88</v>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.17</t>
+  </si>
+  <si>
     <t>X2018.11.15</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
     <t>Savler</t>
   </si>
   <si>
-    <t>SELFIE</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -266,16 +266,16 @@
     <t>zau</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>-BF</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t/>
@@ -435,432 +435,447 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>84</v>
       </c>
       <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
-        <v>84</v>
-      </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
         <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
         <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z2" t="s">
         <v>84</v>
       </c>
       <c r="AA2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" t="s">
-        <v>84</v>
-      </c>
       <c r="AG2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
         <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X3" t="s">
         <v>84</v>
       </c>
       <c r="Y3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
         <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
         <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
         <v>84</v>
       </c>
       <c r="Z4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
         <v>84</v>
       </c>
       <c r="AD4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF4" t="s">
         <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
         <v>87</v>
       </c>
-      <c r="H5" t="s">
+      <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>84</v>
-      </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC5" t="s">
         <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
@@ -953,12 +968,15 @@
         <v>88</v>
       </c>
       <c r="AH6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -1057,25 +1075,28 @@
         <v>86</v>
       </c>
       <c r="AH7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y8" t="s">
         <v>88</v>
@@ -1161,268 +1182,277 @@
         <v>88</v>
       </c>
       <c r="AH8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
         <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
         <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
         <v>84</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD9" t="s">
         <v>84</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s">
         <v>84</v>
       </c>
       <c r="AG9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
         <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
         <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
         <v>84</v>
       </c>
       <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
         <v>89</v>
       </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
       <c r="U10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
         <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z10" t="s">
         <v>84</v>
       </c>
       <c r="AA10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD10" t="s">
         <v>84</v>
       </c>
       <c r="AE10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s">
         <v>84</v>
       </c>
       <c r="AG10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
         <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
         <v>86</v>
@@ -1431,10 +1461,10 @@
         <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s">
         <v>86</v>
@@ -1443,298 +1473,307 @@
         <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
         <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" t="s">
         <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V12" t="s">
         <v>84</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s">
         <v>84</v>
       </c>
       <c r="Z12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="s">
         <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE12" t="s">
         <v>84</v>
       </c>
       <c r="AF12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
         <v>84</v>
       </c>
       <c r="AH12" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
         <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
         <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
         <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB13" t="s">
         <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE13" t="s">
         <v>84</v>
       </c>
       <c r="AF13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s">
         <v>84</v>
       </c>
       <c r="AH13" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>86</v>
-      </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R14" t="s">
         <v>88</v>
@@ -1785,96 +1824,99 @@
         <v>88</v>
       </c>
       <c r="AH14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
         <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s">
         <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
         <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s">
         <v>85</v>
@@ -1886,152 +1928,158 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
         <v>84</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
         <v>84</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X16" t="s">
         <v>84</v>
       </c>
       <c r="Y16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE16" t="s">
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG16" t="s">
         <v>84</v>
       </c>
       <c r="AH16" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
         <v>88</v>
@@ -2097,268 +2145,277 @@
         <v>88</v>
       </c>
       <c r="AH17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
         <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S18" t="s">
         <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V18" t="s">
         <v>84</v>
       </c>
       <c r="W18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y18" t="s">
         <v>89</v>
       </c>
-      <c r="Y18" t="s">
-        <v>84</v>
-      </c>
       <c r="Z18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD18" t="s">
         <v>84</v>
       </c>
       <c r="AE18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s">
         <v>86</v>
       </c>
       <c r="AH18" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" t="s">
-        <v>84</v>
-      </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U19" t="s">
         <v>84</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y19" t="s">
         <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="s">
         <v>84</v>
       </c>
       <c r="AC19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG19" t="s">
         <v>84</v>
       </c>
       <c r="AH19" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
         <v>84</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s">
         <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R20" t="s">
         <v>88</v>
@@ -2409,223 +2466,232 @@
         <v>88</v>
       </c>
       <c r="AH20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
         <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W21" t="s">
         <v>84</v>
       </c>
       <c r="X21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="s">
         <v>84</v>
       </c>
       <c r="AC21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
         <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
         <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
         <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R22" t="s">
         <v>84</v>
       </c>
       <c r="S22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X22" t="s">
         <v>84</v>
       </c>
       <c r="Y22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z22" t="s">
         <v>89</v>
       </c>
-      <c r="Z22" t="s">
-        <v>84</v>
-      </c>
       <c r="AA22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE22" t="s">
         <v>84</v>
       </c>
       <c r="AF22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
@@ -2634,43 +2700,43 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
         <v>86</v>
       </c>
       <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" t="s">
         <v>87</v>
       </c>
-      <c r="H23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" t="s">
-        <v>86</v>
-      </c>
       <c r="M23" t="s">
         <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R23" t="s">
         <v>86</v>
@@ -2679,78 +2745,81 @@
         <v>86</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
         <v>86</v>
@@ -2762,19 +2831,19 @@
         <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R24" t="s">
         <v>88</v>
@@ -2825,57 +2894,60 @@
         <v>88</v>
       </c>
       <c r="AH24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s">
         <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q25" t="s">
         <v>86</v>
@@ -2923,66 +2995,69 @@
         <v>86</v>
       </c>
       <c r="AF25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s">
         <v>88</v>
       </c>
       <c r="AH25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
         <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R26" t="s">
         <v>88</v>
@@ -3033,146 +3108,152 @@
         <v>88</v>
       </c>
       <c r="AH26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
         <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N27" t="s">
         <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q27" t="s">
         <v>84</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T27" t="s">
         <v>84</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X27" t="s">
         <v>84</v>
       </c>
       <c r="Y27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
         <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s">
         <v>86</v>
@@ -3181,7 +3262,7 @@
         <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" t="s">
         <v>88</v>
@@ -3241,72 +3322,75 @@
         <v>88</v>
       </c>
       <c r="AH28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" t="s">
         <v>87</v>
       </c>
-      <c r="K29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" t="s">
-        <v>86</v>
-      </c>
       <c r="M29" t="s">
         <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V29" t="s">
         <v>86</v>
@@ -3321,7 +3405,7 @@
         <v>86</v>
       </c>
       <c r="Z29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA29" t="s">
         <v>88</v>
@@ -3345,122 +3429,128 @@
         <v>88</v>
       </c>
       <c r="AH29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T30" t="s">
         <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V30" t="s">
+        <v>84</v>
+      </c>
+      <c r="W30" t="s">
         <v>89</v>
       </c>
-      <c r="W30" t="s">
-        <v>86</v>
-      </c>
       <c r="X30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA30" t="s">
         <v>84</v>
       </c>
       <c r="AB30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG30" t="s">
         <v>84</v>
       </c>
       <c r="AH30" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -3472,7 +3562,7 @@
         <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
         <v>88</v>
@@ -3553,119 +3643,125 @@
         <v>88</v>
       </c>
       <c r="AH31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" t="s">
-        <v>85</v>
       </c>
       <c r="L32" t="s">
         <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N32" t="s">
         <v>84</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S32" t="s">
         <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U32" t="s">
         <v>84</v>
       </c>
       <c r="V32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z32" t="s">
         <v>84</v>
       </c>
       <c r="AA32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="s">
         <v>84</v>
       </c>
       <c r="AC32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD32" t="s">
         <v>84</v>
       </c>
       <c r="AE32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG32" t="s">
         <v>84</v>
       </c>
       <c r="AH32" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
         <v>88</v>
@@ -3761,116 +3857,122 @@
         <v>88</v>
       </c>
       <c r="AH33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
         <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD34" t="s">
         <v>89</v>
       </c>
-      <c r="AD34" t="s">
-        <v>84</v>
-      </c>
       <c r="AE34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -3891,96 +3993,99 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
         <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
         <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S35" t="s">
         <v>84</v>
       </c>
       <c r="T35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W35" t="s">
         <v>84</v>
       </c>
       <c r="X35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA35" t="s">
         <v>84</v>
       </c>
       <c r="AB35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF35" t="s">
         <v>84</v>
       </c>
       <c r="AG35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s">
         <v>84</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -4073,72 +4178,75 @@
         <v>88</v>
       </c>
       <c r="AH36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L37" t="s">
         <v>84</v>
       </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V37" t="s">
         <v>88</v>
@@ -4177,90 +4285,93 @@
         <v>88</v>
       </c>
       <c r="AH37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" t="s">
-        <v>88</v>
-      </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB38" t="s">
         <v>88</v>
@@ -4281,271 +4392,280 @@
         <v>88</v>
       </c>
       <c r="AH38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
         <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s">
         <v>84</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40" t="s">
         <v>87</v>
       </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" t="s">
-        <v>87</v>
-      </c>
-      <c r="K40" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M40" t="s">
-        <v>87</v>
-      </c>
-      <c r="N40" t="s">
-        <v>84</v>
-      </c>
-      <c r="O40" t="s">
-        <v>87</v>
-      </c>
-      <c r="P40" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>84</v>
-      </c>
       <c r="R40" t="s">
         <v>84</v>
       </c>
       <c r="S40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X40" t="s">
         <v>84</v>
       </c>
       <c r="Y40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC40" t="s">
         <v>84</v>
       </c>
       <c r="AD40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE40" t="s">
         <v>87</v>
       </c>
       <c r="AF40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" t="s">
-        <v>86</v>
-      </c>
       <c r="L41" t="s">
         <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O41" t="s">
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S41" t="s">
         <v>86</v>
@@ -4554,16 +4674,16 @@
         <v>86</v>
       </c>
       <c r="U41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V41" t="s">
         <v>86</v>
       </c>
       <c r="W41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y41" t="s">
         <v>86</v>
@@ -4572,16 +4692,16 @@
         <v>84</v>
       </c>
       <c r="AA41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE41" t="s">
         <v>84</v>
@@ -4590,128 +4710,134 @@
         <v>86</v>
       </c>
       <c r="AG41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s">
         <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L42" t="s">
         <v>84</v>
       </c>
       <c r="M42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N42" t="s">
         <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
         <v>84</v>
@@ -4720,76 +4846,76 @@
         <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
         <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L43" t="s">
         <v>84</v>
       </c>
       <c r="M43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE43" t="s">
         <v>88</v>
@@ -4801,366 +4927,378 @@
         <v>88</v>
       </c>
       <c r="AH43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S44" t="s">
         <v>84</v>
       </c>
       <c r="T44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA44" t="s">
         <v>84</v>
       </c>
       <c r="AB44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
         <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
         <v>84</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s">
         <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>84</v>
+      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+      <c r="S45" t="s">
+        <v>84</v>
+      </c>
+      <c r="T45" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" t="s">
+        <v>84</v>
+      </c>
+      <c r="V45" t="s">
+        <v>84</v>
+      </c>
+      <c r="W45" t="s">
+        <v>85</v>
+      </c>
+      <c r="X45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC45" t="s">
         <v>89</v>
       </c>
-      <c r="N45" t="s">
-        <v>84</v>
-      </c>
-      <c r="O45" t="s">
-        <v>84</v>
-      </c>
-      <c r="P45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>87</v>
-      </c>
-      <c r="R45" t="s">
-        <v>87</v>
-      </c>
-      <c r="S45" t="s">
-        <v>84</v>
-      </c>
-      <c r="T45" t="s">
-        <v>84</v>
-      </c>
-      <c r="U45" t="s">
-        <v>84</v>
-      </c>
-      <c r="V45" t="s">
-        <v>84</v>
-      </c>
-      <c r="W45" t="s">
-        <v>84</v>
-      </c>
-      <c r="X45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>84</v>
-      </c>
       <c r="AD45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE45" t="s">
         <v>84</v>
       </c>
       <c r="AF45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s">
         <v>84</v>
       </c>
       <c r="AH45" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
         <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S46" t="s">
         <v>84</v>
       </c>
       <c r="T46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V46" t="s">
         <v>84</v>
       </c>
       <c r="W46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" t="s">
         <v>87</v>
       </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" t="s">
-        <v>84</v>
-      </c>
-      <c r="J47" t="s">
-        <v>86</v>
-      </c>
-      <c r="K47" t="s">
-        <v>84</v>
-      </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M47" t="s">
         <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
         <v>84</v>
@@ -5169,13 +5307,13 @@
         <v>84</v>
       </c>
       <c r="R47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U47" t="s">
         <v>87</v>
@@ -5187,13 +5325,13 @@
         <v>84</v>
       </c>
       <c r="X47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA47" t="s">
         <v>84</v>
@@ -5205,128 +5343,134 @@
         <v>84</v>
       </c>
       <c r="AD47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF47" t="s">
         <v>86</v>
       </c>
       <c r="AG47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s">
         <v>84</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="s">
         <v>86</v>
       </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD48" t="s">
         <v>84</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
@@ -5338,52 +5482,52 @@
         <v>86</v>
       </c>
       <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" t="s">
         <v>87</v>
       </c>
-      <c r="F49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" t="s">
-        <v>86</v>
-      </c>
       <c r="J49" t="s">
         <v>86</v>
       </c>
       <c r="K49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N49" t="s">
         <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U49" t="s">
         <v>84</v>
@@ -5392,248 +5536,150 @@
         <v>86</v>
       </c>
       <c r="W49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
         <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s">
         <v>84</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N50" t="s">
         <v>84</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s">
         <v>84</v>
       </c>
       <c r="Q50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S50" t="s">
         <v>84</v>
       </c>
       <c r="T50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" t="s">
-        <v>87</v>
-      </c>
-      <c r="J51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K51" t="s">
-        <v>87</v>
-      </c>
-      <c r="L51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M51" t="s">
-        <v>87</v>
-      </c>
-      <c r="N51" t="s">
-        <v>87</v>
-      </c>
-      <c r="O51" t="s">
-        <v>87</v>
-      </c>
-      <c r="P51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>87</v>
-      </c>
-      <c r="R51" t="s">
-        <v>87</v>
-      </c>
-      <c r="S51" t="s">
-        <v>84</v>
-      </c>
-      <c r="T51" t="s">
-        <v>84</v>
-      </c>
-      <c r="U51" t="s">
-        <v>87</v>
-      </c>
-      <c r="V51" t="s">
-        <v>87</v>
-      </c>
-      <c r="W51" t="s">
-        <v>84</v>
-      </c>
-      <c r="X51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>batata</t>
+  </si>
+  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -272,13 +275,13 @@
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
     <t>-BF</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2</t>
@@ -444,106 +447,106 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -551,106 +554,106 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -658,106 +661,106 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -765,16 +768,16 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -783,43 +786,43 @@
         <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
         <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
         <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U5" t="s">
         <v>85</v>
@@ -828,7 +831,7 @@
         <v>85</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
         <v>85</v>
@@ -837,19 +840,19 @@
         <v>85</v>
       </c>
       <c r="Z5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="s">
         <v>85</v>
       </c>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s">
         <v>85</v>
@@ -858,13 +861,13 @@
         <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -872,37 +875,37 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
         <v>88</v>
@@ -911,67 +914,67 @@
         <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s">
         <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -982,103 +985,103 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1086,73 +1089,73 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
         <v>88</v>
@@ -1196,103 +1199,103 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1300,61 +1303,61 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
         <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
         <v>85</v>
@@ -1363,43 +1366,43 @@
         <v>85</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1407,40 +1410,40 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>86</v>
@@ -1449,64 +1452,64 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
         <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V11" t="s">
         <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB11" t="s">
         <v>86</v>
       </c>
       <c r="AC11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1517,73 +1520,73 @@
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
         <v>86</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z12" t="s">
         <v>85</v>
@@ -1592,7 +1595,7 @@
         <v>85</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC12" t="s">
         <v>85</v>
@@ -1601,19 +1604,19 @@
         <v>85</v>
       </c>
       <c r="AE12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="s">
         <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1621,19 +1624,19 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>85</v>
@@ -1645,7 +1648,7 @@
         <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -1654,37 +1657,37 @@
         <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
         <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
         <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
         <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X13" t="s">
         <v>85</v>
@@ -1693,34 +1696,34 @@
         <v>85</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -1728,106 +1731,106 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
         <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1835,13 +1838,13 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -1853,88 +1856,88 @@
         <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
         <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
         <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE15" t="s">
         <v>87</v>
       </c>
       <c r="AF15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1942,28 +1945,28 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -1972,28 +1975,28 @@
         <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T16" t="s">
         <v>85</v>
@@ -2002,46 +2005,46 @@
         <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W16" t="s">
         <v>85</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF16" t="s">
         <v>85</v>
       </c>
       <c r="AG16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -2052,103 +2055,103 @@
         <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
         <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2156,106 +2159,106 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -2263,103 +2266,103 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
         <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V19" t="s">
         <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X19" t="s">
         <v>85</v>
       </c>
       <c r="Y19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s">
         <v>85</v>
@@ -2370,49 +2373,49 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s">
         <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
         <v>86</v>
@@ -2421,55 +2424,55 @@
         <v>88</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD20" t="s">
         <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -2477,28 +2480,28 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>85</v>
@@ -2507,76 +2510,76 @@
         <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" t="s">
         <v>85</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2584,106 +2587,106 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s">
         <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W22" t="s">
         <v>85</v>
       </c>
       <c r="X22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y22" t="s">
         <v>85</v>
       </c>
       <c r="Z22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB22" t="s">
         <v>85</v>
       </c>
       <c r="AC22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s">
         <v>86</v>
       </c>
       <c r="AI22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -2691,55 +2694,55 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>86</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S23" t="s">
         <v>86</v>
@@ -2748,49 +2751,49 @@
         <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AA23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="s">
         <v>86</v>
       </c>
       <c r="AG23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -2801,49 +2804,49 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O24" t="s">
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R24" t="s">
         <v>88</v>
@@ -2855,46 +2858,46 @@
         <v>88</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X24" t="s">
         <v>88</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF24" t="s">
         <v>88</v>
       </c>
       <c r="AG24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s">
         <v>88</v>
@@ -2905,106 +2908,106 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3012,22 +3015,22 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
@@ -3036,28 +3039,28 @@
         <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
         <v>85</v>
       </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s">
         <v>85</v>
       </c>
       <c r="Q26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R26" t="s">
         <v>88</v>
@@ -3105,13 +3108,13 @@
         <v>88</v>
       </c>
       <c r="AG26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3119,31 +3122,31 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s">
         <v>85</v>
@@ -3152,73 +3155,73 @@
         <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" t="s">
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3226,106 +3229,106 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s">
         <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M28" t="s">
         <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE28" t="s">
         <v>88</v>
       </c>
       <c r="AF28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -3333,7 +3336,7 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
@@ -3342,97 +3345,97 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
         <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -3440,106 +3443,106 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R30" t="s">
         <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -3553,100 +3556,100 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X31" t="s">
         <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD31" t="s">
         <v>88</v>
       </c>
       <c r="AE31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -3654,31 +3657,31 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s">
         <v>87</v>
@@ -3687,73 +3690,73 @@
         <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -3764,103 +3767,103 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y33" t="s">
         <v>88</v>
       </c>
       <c r="Z33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -3868,106 +3871,106 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -3975,19 +3978,19 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -3996,40 +3999,40 @@
         <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O35" t="s">
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R35" t="s">
         <v>85</v>
       </c>
       <c r="S35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U35" t="s">
         <v>85</v>
@@ -4038,19 +4041,19 @@
         <v>85</v>
       </c>
       <c r="W35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z35" t="s">
         <v>85</v>
       </c>
       <c r="AA35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB35" t="s">
         <v>85</v>
@@ -4059,19 +4062,19 @@
         <v>85</v>
       </c>
       <c r="AD35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s">
         <v>85</v>
       </c>
       <c r="AH35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s">
         <v>85</v>
@@ -4082,10 +4085,10 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -4103,85 +4106,85 @@
         <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
         <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -4189,106 +4192,106 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -4299,103 +4302,103 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
         <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N38" t="s">
         <v>86</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R38" t="s">
         <v>86</v>
       </c>
       <c r="S38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T38" t="s">
         <v>85</v>
       </c>
       <c r="U38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -4403,7 +4406,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
@@ -4412,55 +4415,55 @@
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
         <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
         <v>85</v>
       </c>
       <c r="M39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O39" t="s">
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V39" t="s">
         <v>85</v>
@@ -4469,40 +4472,40 @@
         <v>85</v>
       </c>
       <c r="X39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y39" t="s">
         <v>85</v>
       </c>
       <c r="Z39" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -4510,55 +4513,55 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
         <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L40" t="s">
         <v>86</v>
       </c>
       <c r="M40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O40" t="s">
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S40" t="s">
         <v>86</v>
@@ -4576,7 +4579,7 @@
         <v>86</v>
       </c>
       <c r="X40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y40" t="s">
         <v>86</v>
@@ -4585,31 +4588,31 @@
         <v>86</v>
       </c>
       <c r="AA40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="s">
         <v>85</v>
       </c>
       <c r="AG40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -4617,106 +4620,106 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AA41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB41" t="s">
         <v>85</v>
       </c>
       <c r="AC41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF41" t="s">
         <v>86</v>
       </c>
       <c r="AG41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -4724,43 +4727,43 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" t="s">
         <v>88</v>
@@ -4772,7 +4775,7 @@
         <v>88</v>
       </c>
       <c r="R42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S42" t="s">
         <v>88</v>
@@ -4781,37 +4784,37 @@
         <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V42" t="s">
         <v>88</v>
       </c>
       <c r="W42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y42" t="s">
         <v>88</v>
       </c>
       <c r="Z42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF42" t="s">
         <v>88</v>
@@ -4834,103 +4837,103 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -4938,31 +4941,31 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s">
         <v>85</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s">
         <v>85</v>
@@ -4971,73 +4974,73 @@
         <v>85</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V44" t="s">
         <v>85</v>
       </c>
       <c r="W44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y44" t="s">
         <v>85</v>
       </c>
       <c r="Z44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC44" t="s">
         <v>85</v>
       </c>
       <c r="AD44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -5045,13 +5048,13 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
@@ -5060,91 +5063,91 @@
         <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AD45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF45" t="s">
         <v>86</v>
       </c>
       <c r="AG45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
@@ -5155,37 +5158,37 @@
         <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
         <v>85</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L46" t="s">
         <v>85</v>
       </c>
       <c r="M46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N46" t="s">
         <v>85</v>
@@ -5194,7 +5197,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q46" t="s">
         <v>85</v>
@@ -5203,55 +5206,55 @@
         <v>85</v>
       </c>
       <c r="S46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA46" t="s">
         <v>85</v>
       </c>
       <c r="AB46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AD46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE46" t="s">
         <v>85</v>
       </c>
       <c r="AF46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -5259,103 +5262,103 @@
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
         <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R47" t="s">
         <v>86</v>
       </c>
       <c r="S47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T47" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s">
         <v>86</v>
@@ -5366,79 +5369,79 @@
         <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s">
         <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
         <v>85</v>
       </c>
       <c r="M48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O48" t="s">
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V48" t="s">
         <v>85</v>
       </c>
       <c r="W48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y48" t="s">
         <v>85</v>
       </c>
       <c r="Z48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA48" t="s">
         <v>85</v>
@@ -5450,22 +5453,22 @@
         <v>85</v>
       </c>
       <c r="AD48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -5473,64 +5476,64 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V49" t="s">
         <v>86</v>
@@ -5542,37 +5545,37 @@
         <v>88</v>
       </c>
       <c r="Y49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AE49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
@@ -5580,106 +5583,213 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" t="s">
+        <v>88</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>86</v>
+      </c>
+      <c r="R50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S50" t="s">
+        <v>85</v>
+      </c>
+      <c r="T50" t="s">
+        <v>86</v>
+      </c>
+      <c r="U50" t="s">
+        <v>85</v>
+      </c>
+      <c r="V50" t="s">
+        <v>88</v>
+      </c>
+      <c r="W50" t="s">
+        <v>87</v>
+      </c>
+      <c r="X50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" t="s">
-        <v>84</v>
-      </c>
-      <c r="K50" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" t="s">
-        <v>84</v>
-      </c>
-      <c r="M50" t="s">
-        <v>85</v>
-      </c>
-      <c r="N50" t="s">
-        <v>84</v>
-      </c>
-      <c r="O50" t="s">
-        <v>84</v>
-      </c>
-      <c r="P50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>85</v>
-      </c>
-      <c r="R50" t="s">
-        <v>84</v>
-      </c>
-      <c r="S50" t="s">
-        <v>84</v>
-      </c>
-      <c r="T50" t="s">
-        <v>85</v>
-      </c>
-      <c r="U50" t="s">
-        <v>85</v>
-      </c>
-      <c r="V50" t="s">
-        <v>84</v>
-      </c>
-      <c r="W50" t="s">
-        <v>84</v>
-      </c>
-      <c r="X50" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>84</v>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>86</v>
+      </c>
+      <c r="R51" t="s">
+        <v>85</v>
+      </c>
+      <c r="S51" t="s">
+        <v>85</v>
+      </c>
+      <c r="T51" t="s">
+        <v>86</v>
+      </c>
+      <c r="U51" t="s">
+        <v>86</v>
+      </c>
+      <c r="V51" t="s">
+        <v>85</v>
+      </c>
+      <c r="W51" t="s">
+        <v>85</v>
+      </c>
+      <c r="X51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.19</t>
+  </si>
+  <si>
     <t>X2018.11.17</t>
   </si>
   <si>
@@ -269,22 +272,22 @@
     <t>zau</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>-BF</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>-BF</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -441,25 +444,28 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -477,22 +483,22 @@
         <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" t="s">
-        <v>86</v>
-      </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
         <v>86</v>
@@ -507,22 +513,22 @@
         <v>86</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X2" t="s">
         <v>86</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
         <v>86</v>
@@ -534,24 +540,27 @@
         <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" t="s">
-        <v>86</v>
-      </c>
       <c r="AH2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -578,14 +587,14 @@
         <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
         <v>90</v>
       </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
       <c r="M3" t="s">
         <v>86</v>
       </c>
@@ -596,10 +605,10 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
         <v>86</v>
@@ -617,13 +626,13 @@
         <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z3" t="s">
         <v>86</v>
@@ -653,268 +662,277 @@
         <v>86</v>
       </c>
       <c r="AI3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
         <v>86</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s">
         <v>86</v>
       </c>
       <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
         <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
         <v>86</v>
@@ -926,23 +944,23 @@
         <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" t="s">
         <v>89</v>
       </c>
-      <c r="U6" t="s">
-        <v>86</v>
-      </c>
       <c r="V6" t="s">
         <v>86</v>
       </c>
       <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
       <c r="Y6" t="s">
         <v>86</v>
       </c>
@@ -950,16 +968,16 @@
         <v>86</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="s">
         <v>86</v>
@@ -974,342 +992,354 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y9" t="s">
         <v>87</v>
       </c>
       <c r="Z9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
@@ -1330,10 +1360,10 @@
         <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
         <v>86</v>
@@ -1345,13 +1375,13 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
         <v>86</v>
@@ -1360,13 +1390,13 @@
         <v>86</v>
       </c>
       <c r="U10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
         <v>86</v>
@@ -1384,108 +1414,111 @@
         <v>86</v>
       </c>
       <c r="AC10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
         <v>86</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
         <v>90</v>
       </c>
-      <c r="U11" t="s">
-        <v>86</v>
-      </c>
       <c r="V11" t="s">
         <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
         <v>86</v>
@@ -1494,256 +1527,265 @@
         <v>86</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
         <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
         <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
         <v>88</v>
       </c>
       <c r="AC12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s">
         <v>88</v>
       </c>
       <c r="AI12" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
         <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
         <v>88</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
         <v>86</v>
       </c>
       <c r="AB13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD13" t="s">
         <v>86</v>
       </c>
       <c r="AE13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -1755,34 +1797,34 @@
         <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
         <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
       </c>
       <c r="R14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T14" t="s">
         <v>86</v>
@@ -1794,10 +1836,10 @@
         <v>86</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s">
         <v>86</v>
@@ -1806,146 +1848,152 @@
         <v>86</v>
       </c>
       <c r="AA14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" t="s">
         <v>89</v>
       </c>
-      <c r="O15" t="s">
-        <v>88</v>
-      </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R15" t="s">
         <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1963,19 +2011,19 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
         <v>86</v>
@@ -1999,22 +2047,22 @@
         <v>86</v>
       </c>
       <c r="T16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
         <v>86</v>
@@ -2032,48 +2080,51 @@
         <v>86</v>
       </c>
       <c r="AE16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF16" t="s">
         <v>89</v>
       </c>
-      <c r="AF16" t="s">
-        <v>85</v>
-      </c>
       <c r="AG16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s">
         <v>86</v>
       </c>
       <c r="AI16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
         <v>86</v>
@@ -2082,28 +2133,28 @@
         <v>86</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
         <v>86</v>
@@ -2118,10 +2169,10 @@
         <v>86</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
         <v>86</v>
@@ -2139,140 +2190,146 @@
         <v>86</v>
       </c>
       <c r="AE17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
       </c>
       <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" t="s">
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
         <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>86</v>
@@ -2281,10 +2338,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
@@ -2293,16 +2350,16 @@
         <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
         <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O19" t="s">
         <v>86</v>
@@ -2317,69 +2374,72 @@
         <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U19" t="s">
         <v>86</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" t="s">
         <v>90</v>
       </c>
-      <c r="Z19" t="s">
-        <v>86</v>
-      </c>
       <c r="AA19" t="s">
         <v>86</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC19" t="s">
         <v>88</v>
       </c>
       <c r="AD19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF19" t="s">
         <v>86</v>
       </c>
       <c r="AG19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
@@ -2403,37 +2463,37 @@
         <v>86</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
         <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
         <v>86</v>
       </c>
       <c r="P20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" t="s">
         <v>89</v>
       </c>
-      <c r="Q20" t="s">
-        <v>86</v>
-      </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W20" t="s">
         <v>86</v>
@@ -2442,60 +2502,63 @@
         <v>86</v>
       </c>
       <c r="Y20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA20" t="s">
         <v>86</v>
       </c>
       <c r="AB20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
         <v>86</v>
@@ -2504,93 +2567,96 @@
         <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R21" t="s">
         <v>87</v>
       </c>
       <c r="S21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -2605,10 +2671,10 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
         <v>86</v>
@@ -2617,13 +2683,13 @@
         <v>86</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
         <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
         <v>86</v>
@@ -2647,28 +2713,28 @@
         <v>86</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z22" t="s">
         <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD22" t="s">
         <v>86</v>
@@ -2686,18 +2752,21 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -2706,46 +2775,46 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
         <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s">
         <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T23" t="s">
         <v>86</v>
@@ -2754,23 +2823,23 @@
         <v>86</v>
       </c>
       <c r="V23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" t="s">
         <v>90</v>
       </c>
-      <c r="AA23" t="s">
-        <v>86</v>
-      </c>
       <c r="AB23" t="s">
         <v>86</v>
       </c>
@@ -2778,143 +2847,149 @@
         <v>86</v>
       </c>
       <c r="AD23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s">
         <v>86</v>
       </c>
       <c r="AH23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" t="s">
         <v>89</v>
       </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R24" t="s">
         <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X24" t="s">
         <v>88</v>
       </c>
       <c r="Y24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF24" t="s">
         <v>88</v>
       </c>
       <c r="AG24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
@@ -2926,31 +3001,31 @@
         <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
         <v>88</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O25" t="s">
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" t="s">
         <v>88</v>
@@ -2959,292 +3034,301 @@
         <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG26" t="s">
         <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
         <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
         <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R27" t="s">
         <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
         <v>86</v>
@@ -3253,346 +3337,355 @@
         <v>86</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE28" t="s">
         <v>88</v>
       </c>
       <c r="AF28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29" t="s">
         <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" t="s">
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
         <v>89</v>
       </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
         <v>89</v>
       </c>
-      <c r="J30" t="s">
-        <v>86</v>
-      </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" t="s">
         <v>89</v>
       </c>
-      <c r="M30" t="s">
-        <v>88</v>
-      </c>
       <c r="N30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S30" t="s">
         <v>88</v>
       </c>
       <c r="T30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U30" t="s">
         <v>86</v>
       </c>
       <c r="V30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA30" t="s">
         <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
         <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="s">
         <v>86</v>
@@ -3604,57 +3697,60 @@
         <v>86</v>
       </c>
       <c r="T31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W31" t="s">
+        <v>88</v>
+      </c>
+      <c r="X31" t="s">
         <v>90</v>
       </c>
-      <c r="X31" t="s">
-        <v>88</v>
-      </c>
       <c r="Y31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC31" t="s">
         <v>86</v>
       </c>
       <c r="AD31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
@@ -3663,212 +3759,218 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
         <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
         <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y33" t="s">
         <v>88</v>
       </c>
       <c r="Z33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -3877,123 +3979,126 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s">
         <v>86</v>
@@ -4005,126 +4110,129 @@
         <v>86</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L35" t="s">
         <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P35" t="s">
         <v>88</v>
       </c>
       <c r="Q35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T35" t="s">
         <v>88</v>
       </c>
       <c r="U35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W35" t="s">
         <v>88</v>
       </c>
       <c r="X35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y35" t="s">
         <v>86</v>
       </c>
       <c r="Z35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" t="s">
         <v>90</v>
       </c>
-      <c r="AE35" t="s">
-        <v>86</v>
-      </c>
       <c r="AF35" t="s">
         <v>86</v>
       </c>
       <c r="AG35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
         <v>89</v>
       </c>
-      <c r="J36" t="s">
-        <v>85</v>
-      </c>
       <c r="K36" t="s">
         <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P36" t="s">
         <v>86</v>
@@ -4136,10 +4244,10 @@
         <v>86</v>
       </c>
       <c r="S36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U36" t="s">
         <v>86</v>
@@ -4148,10 +4256,10 @@
         <v>86</v>
       </c>
       <c r="W36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y36" t="s">
         <v>86</v>
@@ -4160,10 +4268,10 @@
         <v>86</v>
       </c>
       <c r="AA36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC36" t="s">
         <v>86</v>
@@ -4175,149 +4283,155 @@
         <v>86</v>
       </c>
       <c r="AF36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
         <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
         <v>86</v>
@@ -4326,13 +4440,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N38" t="s">
         <v>86</v>
@@ -4353,7 +4467,7 @@
         <v>86</v>
       </c>
       <c r="T38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U38" t="s">
         <v>88</v>
@@ -4362,60 +4476,63 @@
         <v>87</v>
       </c>
       <c r="W38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
@@ -4427,37 +4544,37 @@
         <v>86</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" t="s">
         <v>89</v>
       </c>
-      <c r="L39" t="s">
-        <v>85</v>
-      </c>
       <c r="M39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N39" t="s">
         <v>88</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T39" t="s">
         <v>86</v>
@@ -4466,51 +4583,54 @@
         <v>86</v>
       </c>
       <c r="V39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA39" t="s">
         <v>90</v>
       </c>
-      <c r="AA39" t="s">
-        <v>88</v>
-      </c>
       <c r="AB39" t="s">
         <v>87</v>
       </c>
       <c r="AC39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
@@ -4522,47 +4642,47 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q40" t="s">
+        <v>88</v>
+      </c>
+      <c r="R40" t="s">
         <v>90</v>
       </c>
-      <c r="R40" t="s">
-        <v>86</v>
-      </c>
       <c r="S40" t="s">
         <v>86</v>
       </c>
@@ -4579,10 +4699,10 @@
         <v>86</v>
       </c>
       <c r="X40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z40" t="s">
         <v>86</v>
@@ -4594,137 +4714,143 @@
         <v>86</v>
       </c>
       <c r="AC40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
         <v>88</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q41" t="s">
+        <v>87</v>
+      </c>
+      <c r="R41" t="s">
         <v>89</v>
       </c>
-      <c r="R41" t="s">
-        <v>85</v>
-      </c>
       <c r="S41" t="s">
         <v>88</v>
       </c>
       <c r="T41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y41" t="s">
         <v>88</v>
       </c>
       <c r="Z41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF41" t="s">
         <v>89</v>
       </c>
-      <c r="AF41" t="s">
-        <v>86</v>
-      </c>
       <c r="AG41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -4733,117 +4859,120 @@
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" t="s">
         <v>89</v>
       </c>
-      <c r="L42" t="s">
-        <v>88</v>
-      </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O42" t="s">
         <v>88</v>
       </c>
       <c r="P42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S42" t="s">
         <v>88</v>
       </c>
       <c r="T42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V42" t="s">
         <v>88</v>
       </c>
       <c r="W42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y42" t="s">
         <v>88</v>
       </c>
       <c r="Z42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF42" t="s">
         <v>88</v>
       </c>
       <c r="AG42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
         <v>86</v>
@@ -4855,90 +4984,93 @@
         <v>86</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s">
         <v>86</v>
       </c>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O43" t="s">
         <v>87</v>
       </c>
       <c r="P43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
@@ -4950,37 +5082,37 @@
         <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
         <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P44" t="s">
         <v>86</v>
@@ -4992,37 +5124,37 @@
         <v>86</v>
       </c>
       <c r="S44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U44" t="s">
         <v>86</v>
       </c>
       <c r="V44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X44" t="s">
         <v>86</v>
       </c>
       <c r="Y44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD44" t="s">
         <v>88</v>
@@ -5031,39 +5163,42 @@
         <v>87</v>
       </c>
       <c r="AF44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
         <v>86</v>
@@ -5081,14 +5216,14 @@
         <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" t="s">
         <v>90</v>
       </c>
-      <c r="O45" t="s">
-        <v>86</v>
-      </c>
       <c r="P45" t="s">
         <v>86</v>
       </c>
@@ -5096,13 +5231,13 @@
         <v>86</v>
       </c>
       <c r="R45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U45" t="s">
         <v>86</v>
@@ -5123,10 +5258,10 @@
         <v>86</v>
       </c>
       <c r="AA45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC45" t="s">
         <v>86</v>
@@ -5147,140 +5282,146 @@
         <v>86</v>
       </c>
       <c r="AI45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P46" t="s">
         <v>86</v>
       </c>
       <c r="Q46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X46" t="s">
         <v>86</v>
       </c>
       <c r="Y46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD46" t="s">
         <v>90</v>
       </c>
-      <c r="AD46" t="s">
-        <v>86</v>
-      </c>
       <c r="AE46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF46" t="s">
         <v>88</v>
       </c>
       <c r="AG46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
         <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s">
         <v>86</v>
@@ -5289,55 +5430,55 @@
         <v>86</v>
       </c>
       <c r="K47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R47" t="s">
         <v>86</v>
       </c>
       <c r="S47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T47" t="s">
+        <v>88</v>
+      </c>
+      <c r="U47" t="s">
         <v>90</v>
       </c>
-      <c r="U47" t="s">
-        <v>88</v>
-      </c>
       <c r="V47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X47" t="s">
         <v>86</v>
       </c>
       <c r="Y47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z47" t="s">
         <v>88</v>
       </c>
       <c r="AA47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB47" t="s">
         <v>86</v>
@@ -5352,206 +5493,212 @@
         <v>86</v>
       </c>
       <c r="AF47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG47" t="s">
         <v>88</v>
       </c>
       <c r="AH47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
       </c>
-      <c r="F48" t="s">
-        <v>86</v>
-      </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48" t="s">
         <v>89</v>
       </c>
-      <c r="L48" t="s">
-        <v>85</v>
-      </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R48" t="s">
         <v>88</v>
       </c>
       <c r="S48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U48" t="s">
+        <v>88</v>
+      </c>
+      <c r="V48" t="s">
         <v>89</v>
       </c>
-      <c r="V48" t="s">
-        <v>85</v>
-      </c>
       <c r="W48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE48" t="s">
         <v>86</v>
       </c>
       <c r="AF48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
         <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S49" t="s">
         <v>86</v>
       </c>
       <c r="T49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB49" t="s">
         <v>86</v>
@@ -5560,87 +5707,90 @@
         <v>86</v>
       </c>
       <c r="AD49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
         <v>89</v>
       </c>
-      <c r="J50" t="s">
-        <v>88</v>
-      </c>
       <c r="K50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s">
         <v>86</v>
       </c>
       <c r="M50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
         <v>88</v>
       </c>
       <c r="O50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R50" t="s">
         <v>86</v>
       </c>
       <c r="S50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V50" t="s">
         <v>88</v>
@@ -5649,60 +5799,63 @@
         <v>87</v>
       </c>
       <c r="X50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -5714,49 +5867,49 @@
         <v>86</v>
       </c>
       <c r="J51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U51" t="s">
         <v>86</v>
       </c>
       <c r="V51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y51" t="s">
         <v>86</v>
@@ -5765,31 +5918,34 @@
         <v>86</v>
       </c>
       <c r="AA51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC51" t="s">
         <v>86</v>
       </c>
       <c r="AD51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s">
         <v>86</v>
       </c>
       <c r="AI51" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -275,6 +275,9 @@
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -285,9 +288,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -465,7 +465,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -486,19 +486,19 @@
         <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
         <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
         <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
         <v>86</v>
@@ -516,7 +516,7 @@
         <v>86</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X2" t="s">
         <v>86</v>
@@ -525,10 +525,10 @@
         <v>86</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB2" t="s">
         <v>86</v>
@@ -543,16 +543,16 @@
         <v>86</v>
       </c>
       <c r="AF2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH2" t="s">
         <v>86</v>
       </c>
       <c r="AI2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ2" t="s">
         <v>86</v>
@@ -590,10 +590,10 @@
         <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
         <v>86</v>
@@ -608,7 +608,7 @@
         <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R3" t="s">
         <v>86</v>
@@ -629,10 +629,10 @@
         <v>86</v>
       </c>
       <c r="X3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s">
         <v>86</v>
@@ -676,106 +676,106 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -786,13 +786,13 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -801,31 +801,31 @@
         <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
         <v>86</v>
@@ -834,49 +834,49 @@
         <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA5" t="s">
         <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE5" t="s">
         <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s">
         <v>86</v>
@@ -893,13 +893,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
@@ -908,31 +908,31 @@
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
         <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
         <v>86</v>
@@ -947,10 +947,10 @@
         <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" t="s">
         <v>86</v>
@@ -959,7 +959,7 @@
         <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
         <v>86</v>
@@ -971,13 +971,13 @@
         <v>86</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC6" t="s">
         <v>86</v>
       </c>
       <c r="AD6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE6" t="s">
         <v>86</v>
@@ -995,7 +995,7 @@
         <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1012,100 +1012,100 @@
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1113,109 +1113,109 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1223,109 +1223,109 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
         <v>87</v>
       </c>
       <c r="Z9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1333,13 +1333,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
@@ -1363,7 +1363,7 @@
         <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
         <v>86</v>
@@ -1378,10 +1378,10 @@
         <v>86</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
         <v>86</v>
@@ -1393,10 +1393,10 @@
         <v>86</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X10" t="s">
         <v>86</v>
@@ -1417,16 +1417,16 @@
         <v>86</v>
       </c>
       <c r="AD10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF10" t="s">
         <v>86</v>
       </c>
       <c r="AG10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH10" t="s">
         <v>86</v>
@@ -1435,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1449,58 +1449,58 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
         <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
         <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V11" t="s">
         <v>86</v>
@@ -1509,16 +1509,16 @@
         <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z11" t="s">
         <v>86</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
         <v>86</v>
@@ -1530,22 +1530,22 @@
         <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF11" t="s">
         <v>86</v>
       </c>
       <c r="AG11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH11" t="s">
         <v>86</v>
       </c>
       <c r="AI11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -1553,109 +1553,109 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
         <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
         <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R12" t="s">
         <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s">
         <v>87</v>
       </c>
       <c r="AJ12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1663,79 +1663,79 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
         <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X13" t="s">
         <v>86</v>
       </c>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA13" t="s">
         <v>86</v>
@@ -1744,7 +1744,7 @@
         <v>86</v>
       </c>
       <c r="AC13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD13" t="s">
         <v>86</v>
@@ -1753,13 +1753,13 @@
         <v>86</v>
       </c>
       <c r="AF13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG13" t="s">
         <v>86</v>
       </c>
       <c r="AH13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s">
         <v>86</v>
@@ -1776,16 +1776,16 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -1800,7 +1800,7 @@
         <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
         <v>86</v>
@@ -1809,13 +1809,13 @@
         <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -1824,7 +1824,7 @@
         <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T14" t="s">
         <v>86</v>
@@ -1839,7 +1839,7 @@
         <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y14" t="s">
         <v>86</v>
@@ -1851,31 +1851,31 @@
         <v>86</v>
       </c>
       <c r="AB14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD14" t="s">
         <v>86</v>
       </c>
       <c r="AE14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG14" t="s">
         <v>86</v>
       </c>
       <c r="AH14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s">
         <v>86</v>
       </c>
       <c r="AJ14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -1883,49 +1883,49 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
         <v>86</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
         <v>86</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
         <v>86</v>
@@ -1934,58 +1934,58 @@
         <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1993,7 +1993,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -2014,16 +2014,16 @@
         <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
         <v>86</v>
@@ -2050,19 +2050,19 @@
         <v>86</v>
       </c>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W16" t="s">
         <v>86</v>
       </c>
       <c r="X16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z16" t="s">
         <v>86</v>
@@ -2083,10 +2083,10 @@
         <v>86</v>
       </c>
       <c r="AF16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s">
         <v>86</v>
@@ -2103,10 +2103,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -2115,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -2124,7 +2124,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
         <v>86</v>
@@ -2136,25 +2136,25 @@
         <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
         <v>86</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s">
         <v>86</v>
       </c>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R17" t="s">
         <v>86</v>
       </c>
       <c r="S17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T17" t="s">
         <v>86</v>
@@ -2172,7 +2172,7 @@
         <v>86</v>
       </c>
       <c r="Y17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z17" t="s">
         <v>86</v>
@@ -2193,19 +2193,19 @@
         <v>86</v>
       </c>
       <c r="AF17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG17" t="s">
         <v>86</v>
       </c>
       <c r="AH17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s">
         <v>86</v>
       </c>
       <c r="AJ17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -2213,19 +2213,19 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -2234,88 +2234,88 @@
         <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -2329,7 +2329,7 @@
         <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>86</v>
@@ -2341,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
@@ -2353,13 +2353,13 @@
         <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O19" t="s">
         <v>86</v>
@@ -2377,7 +2377,7 @@
         <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U19" t="s">
         <v>86</v>
@@ -2386,16 +2386,16 @@
         <v>86</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X19" t="s">
         <v>86</v>
       </c>
       <c r="Y19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA19" t="s">
         <v>86</v>
@@ -2404,13 +2404,13 @@
         <v>86</v>
       </c>
       <c r="AC19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF19" t="s">
         <v>86</v>
@@ -2419,13 +2419,13 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -2439,7 +2439,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
@@ -2466,10 +2466,10 @@
         <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O20" t="s">
         <v>86</v>
@@ -2478,22 +2478,22 @@
         <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s">
         <v>86</v>
       </c>
       <c r="S20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W20" t="s">
         <v>86</v>
@@ -2505,7 +2505,7 @@
         <v>86</v>
       </c>
       <c r="Z20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA20" t="s">
         <v>86</v>
@@ -2514,22 +2514,22 @@
         <v>86</v>
       </c>
       <c r="AC20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD20" t="s">
         <v>86</v>
       </c>
       <c r="AE20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="s">
         <v>86</v>
       </c>
       <c r="AG20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s">
         <v>86</v>
@@ -2549,7 +2549,7 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
@@ -2558,7 +2558,7 @@
         <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
         <v>86</v>
@@ -2570,82 +2570,82 @@
         <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
         <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s">
         <v>86</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
         <v>87</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2653,10 +2653,10 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -2674,7 +2674,7 @@
         <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
         <v>86</v>
@@ -2686,10 +2686,10 @@
         <v>86</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O22" t="s">
         <v>86</v>
@@ -2716,25 +2716,25 @@
         <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y22" t="s">
         <v>86</v>
       </c>
       <c r="Z22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB22" t="s">
         <v>86</v>
       </c>
       <c r="AC22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD22" t="s">
         <v>86</v>
@@ -2755,7 +2755,7 @@
         <v>86</v>
       </c>
       <c r="AJ22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -2766,7 +2766,7 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -2778,10 +2778,10 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
         <v>86</v>
@@ -2790,7 +2790,7 @@
         <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
         <v>86</v>
@@ -2799,22 +2799,22 @@
         <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s">
         <v>86</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T23" t="s">
         <v>86</v>
@@ -2826,19 +2826,19 @@
         <v>86</v>
       </c>
       <c r="W23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X23" t="s">
         <v>86</v>
       </c>
       <c r="Y23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z23" t="s">
         <v>86</v>
       </c>
       <c r="AA23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB23" t="s">
         <v>86</v>
@@ -2850,10 +2850,10 @@
         <v>86</v>
       </c>
       <c r="AE23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG23" t="s">
         <v>86</v>
@@ -2862,10 +2862,10 @@
         <v>86</v>
       </c>
       <c r="AI23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -2873,109 +2873,109 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
         <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2983,13 +2983,13 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
@@ -3004,22 +3004,22 @@
         <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O25" t="s">
         <v>86</v>
@@ -3028,64 +3028,64 @@
         <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R25" t="s">
         <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3093,109 +3093,109 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
         <v>86</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG26" t="s">
         <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3203,25 +3203,25 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
         <v>86</v>
@@ -3230,10 +3230,10 @@
         <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M27" t="s">
         <v>86</v>
@@ -3242,10 +3242,10 @@
         <v>86</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="s">
         <v>86</v>
@@ -3254,58 +3254,58 @@
         <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3313,22 +3313,22 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
         <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
         <v>86</v>
@@ -3340,82 +3340,82 @@
         <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
         <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N28" t="s">
         <v>86</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s">
         <v>86</v>
       </c>
       <c r="Q28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S28" t="s">
         <v>86</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V28" t="s">
         <v>86</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z28" t="s">
         <v>86</v>
       </c>
       <c r="AA28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB28" t="s">
         <v>86</v>
       </c>
       <c r="AC28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -3423,109 +3423,109 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>86</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -3533,61 +3533,61 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
         <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
         <v>86</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P30" t="s">
         <v>86</v>
       </c>
       <c r="Q30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R30" t="s">
         <v>86</v>
       </c>
       <c r="S30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U30" t="s">
         <v>86</v>
@@ -3596,46 +3596,46 @@
         <v>86</v>
       </c>
       <c r="W30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA30" t="s">
         <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -3646,46 +3646,46 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
         <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
         <v>86</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q31" t="s">
         <v>86</v>
@@ -3700,28 +3700,28 @@
         <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V31" t="s">
         <v>86</v>
       </c>
       <c r="W31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="s">
         <v>86</v>
       </c>
       <c r="AA31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC31" t="s">
         <v>86</v>
@@ -3730,16 +3730,16 @@
         <v>86</v>
       </c>
       <c r="AE31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s">
         <v>86</v>
@@ -3762,100 +3762,100 @@
         <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
         <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -3863,19 +3863,19 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -3884,82 +3884,82 @@
         <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P33" t="s">
         <v>86</v>
       </c>
       <c r="Q33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U33" t="s">
         <v>86</v>
       </c>
       <c r="V33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W33" t="s">
         <v>86</v>
       </c>
       <c r="X33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB33" t="s">
         <v>86</v>
       </c>
       <c r="AC33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD33" t="s">
         <v>86</v>
       </c>
       <c r="AE33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF33" t="s">
         <v>86</v>
       </c>
       <c r="AG33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s">
         <v>86</v>
@@ -3973,109 +3973,109 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -4083,22 +4083,22 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
         <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
         <v>86</v>
@@ -4113,43 +4113,43 @@
         <v>86</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N35" t="s">
         <v>86</v>
       </c>
       <c r="O35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R35" t="s">
         <v>86</v>
       </c>
       <c r="S35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y35" t="s">
         <v>86</v>
@@ -4158,19 +4158,19 @@
         <v>86</v>
       </c>
       <c r="AA35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF35" t="s">
         <v>86</v>
@@ -4179,13 +4179,13 @@
         <v>86</v>
       </c>
       <c r="AH35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -4193,46 +4193,46 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s">
         <v>86</v>
@@ -4247,7 +4247,7 @@
         <v>86</v>
       </c>
       <c r="T36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U36" t="s">
         <v>86</v>
@@ -4259,7 +4259,7 @@
         <v>86</v>
       </c>
       <c r="X36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y36" t="s">
         <v>86</v>
@@ -4271,7 +4271,7 @@
         <v>86</v>
       </c>
       <c r="AB36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC36" t="s">
         <v>86</v>
@@ -4286,13 +4286,13 @@
         <v>86</v>
       </c>
       <c r="AG36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s">
         <v>86</v>
       </c>
       <c r="AI36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ36" t="s">
         <v>86</v>
@@ -4303,7 +4303,7 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>86</v>
@@ -4312,100 +4312,100 @@
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -4416,13 +4416,13 @@
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
         <v>86</v>
@@ -4431,7 +4431,7 @@
         <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
         <v>86</v>
@@ -4443,10 +4443,10 @@
         <v>86</v>
       </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N38" t="s">
         <v>86</v>
@@ -4470,52 +4470,52 @@
         <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V38" t="s">
         <v>87</v>
       </c>
       <c r="W38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -4523,16 +4523,16 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
@@ -4547,34 +4547,34 @@
         <v>86</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R39" t="s">
         <v>86</v>
       </c>
       <c r="S39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T39" t="s">
         <v>86</v>
@@ -4586,46 +4586,46 @@
         <v>86</v>
       </c>
       <c r="W39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB39" t="s">
         <v>87</v>
       </c>
       <c r="AC39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -4645,43 +4645,43 @@
         <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
         <v>86</v>
       </c>
       <c r="K40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M40" t="s">
         <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
         <v>86</v>
       </c>
       <c r="Q40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S40" t="s">
         <v>86</v>
@@ -4702,7 +4702,7 @@
         <v>86</v>
       </c>
       <c r="Y40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z40" t="s">
         <v>86</v>
@@ -4717,25 +4717,25 @@
         <v>86</v>
       </c>
       <c r="AD40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE40" t="s">
         <v>86</v>
       </c>
       <c r="AF40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -4743,7 +4743,7 @@
         <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
@@ -4752,100 +4752,100 @@
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB41" t="s">
         <v>86</v>
       </c>
       <c r="AC41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG41" t="s">
         <v>86</v>
       </c>
       <c r="AH41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -4862,10 +4862,10 @@
         <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -4874,88 +4874,88 @@
         <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
         <v>86</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N42" t="s">
         <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC42" t="s">
         <v>86</v>
       </c>
       <c r="AD42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -4963,16 +4963,16 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
         <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
         <v>86</v>
@@ -4987,7 +4987,7 @@
         <v>86</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s">
         <v>86</v>
@@ -4996,7 +4996,7 @@
         <v>86</v>
       </c>
       <c r="M43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N43" t="s">
         <v>86</v>
@@ -5005,67 +5005,67 @@
         <v>87</v>
       </c>
       <c r="P43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -5085,10 +5085,10 @@
         <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
         <v>86</v>
@@ -5097,22 +5097,22 @@
         <v>86</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s">
         <v>86</v>
       </c>
       <c r="L44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N44" t="s">
         <v>86</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P44" t="s">
         <v>86</v>
@@ -5127,7 +5127,7 @@
         <v>86</v>
       </c>
       <c r="T44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U44" t="s">
         <v>86</v>
@@ -5136,7 +5136,7 @@
         <v>86</v>
       </c>
       <c r="W44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X44" t="s">
         <v>86</v>
@@ -5145,37 +5145,37 @@
         <v>86</v>
       </c>
       <c r="Z44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA44" t="s">
         <v>86</v>
       </c>
       <c r="AB44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC44" t="s">
         <v>86</v>
       </c>
       <c r="AD44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE44" t="s">
         <v>87</v>
       </c>
       <c r="AF44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -5183,22 +5183,22 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
         <v>86</v>
@@ -5219,10 +5219,10 @@
         <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P45" t="s">
         <v>86</v>
@@ -5234,10 +5234,10 @@
         <v>86</v>
       </c>
       <c r="S45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U45" t="s">
         <v>86</v>
@@ -5261,7 +5261,7 @@
         <v>86</v>
       </c>
       <c r="AB45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC45" t="s">
         <v>86</v>
@@ -5296,13 +5296,13 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
@@ -5311,28 +5311,28 @@
         <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
         <v>86</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s">
         <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P46" t="s">
         <v>86</v>
@@ -5341,22 +5341,22 @@
         <v>86</v>
       </c>
       <c r="R46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U46" t="s">
         <v>86</v>
       </c>
       <c r="V46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X46" t="s">
         <v>86</v>
@@ -5365,31 +5365,31 @@
         <v>86</v>
       </c>
       <c r="Z46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC46" t="s">
         <v>86</v>
       </c>
       <c r="AD46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE46" t="s">
         <v>86</v>
       </c>
       <c r="AF46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s">
         <v>86</v>
@@ -5403,25 +5403,25 @@
         <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
         <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s">
         <v>86</v>
@@ -5433,22 +5433,22 @@
         <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M47" t="s">
         <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O47" t="s">
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R47" t="s">
         <v>86</v>
@@ -5457,16 +5457,16 @@
         <v>86</v>
       </c>
       <c r="T47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X47" t="s">
         <v>86</v>
@@ -5475,10 +5475,10 @@
         <v>86</v>
       </c>
       <c r="Z47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB47" t="s">
         <v>86</v>
@@ -5496,10 +5496,10 @@
         <v>86</v>
       </c>
       <c r="AG47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s">
         <v>86</v>
@@ -5516,88 +5516,88 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
         <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s">
         <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P48" t="s">
         <v>86</v>
       </c>
       <c r="Q48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA48" t="s">
         <v>86</v>
       </c>
       <c r="AB48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE48" t="s">
         <v>86</v>
@@ -5606,16 +5606,16 @@
         <v>86</v>
       </c>
       <c r="AG48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s">
         <v>86</v>
       </c>
       <c r="AI48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -5626,52 +5626,52 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
         <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M49" t="s">
         <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S49" t="s">
         <v>86</v>
@@ -5680,25 +5680,25 @@
         <v>86</v>
       </c>
       <c r="U49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W49" t="s">
         <v>86</v>
       </c>
       <c r="X49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z49" t="s">
         <v>86</v>
       </c>
       <c r="AA49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB49" t="s">
         <v>86</v>
@@ -5710,19 +5710,19 @@
         <v>86</v>
       </c>
       <c r="AE49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG49" t="s">
         <v>86</v>
       </c>
       <c r="AH49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ49" t="s">
         <v>86</v>
@@ -5733,34 +5733,34 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
         <v>86</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s">
         <v>86</v>
@@ -5769,16 +5769,16 @@
         <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P50" t="s">
         <v>86</v>
       </c>
       <c r="Q50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R50" t="s">
         <v>86</v>
@@ -5787,55 +5787,55 @@
         <v>86</v>
       </c>
       <c r="T50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U50" t="s">
         <v>86</v>
       </c>
       <c r="V50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W50" t="s">
         <v>87</v>
       </c>
       <c r="X50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
@@ -5846,16 +5846,16 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
         <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -5870,34 +5870,34 @@
         <v>86</v>
       </c>
       <c r="K51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
         <v>86</v>
       </c>
       <c r="M51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N51" t="s">
         <v>86</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R51" t="s">
         <v>86</v>
       </c>
       <c r="S51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U51" t="s">
         <v>86</v>
@@ -5906,10 +5906,10 @@
         <v>86</v>
       </c>
       <c r="W51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y51" t="s">
         <v>86</v>
@@ -5921,7 +5921,7 @@
         <v>86</v>
       </c>
       <c r="AB51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC51" t="s">
         <v>86</v>
@@ -5930,13 +5930,13 @@
         <v>86</v>
       </c>
       <c r="AE51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF51" t="s">
         <v>86</v>
       </c>
       <c r="AG51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s">
         <v>86</v>
@@ -5945,7 +5945,7 @@
         <v>86</v>
       </c>
       <c r="AJ51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.21</t>
+  </si>
+  <si>
     <t>X2018.11.19</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
     <t>Da Silva</t>
   </si>
   <si>
-    <t>Doomesticador</t>
-  </si>
-  <si>
     <t>EBAERV_</t>
   </si>
   <si>
@@ -212,6 +212,9 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>president</t>
+  </si>
+  <si>
     <t>pwepito</t>
   </si>
   <si>
@@ -275,16 +278,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>-BF</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-BF</t>
   </si>
   <si>
     <t>2</t>
@@ -447,676 +450,697 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AI2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ3" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
         <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
         <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" t="s">
         <v>90</v>
       </c>
-      <c r="V6" t="s">
-        <v>86</v>
-      </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
         <v>90</v>
       </c>
-      <c r="Y6" t="s">
-        <v>86</v>
-      </c>
       <c r="Z6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
@@ -1125,150 +1149,153 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R9" t="s">
         <v>88</v>
@@ -1277,13 +1304,13 @@
         <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" t="s">
         <v>88</v>
@@ -1310,203 +1337,209 @@
         <v>87</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG9" t="s">
         <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s">
         <v>87</v>
       </c>
       <c r="AJ9" t="s">
         <v>87</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ10" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
         <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
         <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X11" t="s">
         <v>89</v>
@@ -1515,57 +1548,60 @@
         <v>89</v>
       </c>
       <c r="Z11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
@@ -1574,685 +1610,703 @@
         <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
         <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T12" t="s">
         <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X12" t="s">
         <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="U14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="V14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AB14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AE14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" t="s">
+        <v>88</v>
+      </c>
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15" t="s">
         <v>90</v>
       </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" t="s">
-        <v>87</v>
-      </c>
-      <c r="W15" t="s">
-        <v>87</v>
-      </c>
-      <c r="X15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>87</v>
-      </c>
       <c r="AH15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s">
         <v>87</v>
       </c>
       <c r="AJ15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ16" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AB17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AE17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AF17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AJ17" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
         <v>87</v>
@@ -2270,7 +2324,7 @@
         <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
         <v>87</v>
@@ -2279,16 +2333,16 @@
         <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y18" t="s">
         <v>87</v>
       </c>
       <c r="Z18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AB18" t="s">
         <v>87</v>
@@ -2297,13 +2351,13 @@
         <v>87</v>
       </c>
       <c r="AD18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s">
         <v>87</v>
@@ -2312,111 +2366,114 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ18" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
         <v>89</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD19" t="s">
         <v>88</v>
       </c>
       <c r="AE19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s">
         <v>88</v>
@@ -2425,170 +2482,176 @@
         <v>88</v>
       </c>
       <c r="AJ19" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AB20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AC20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AE20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AG20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AJ20" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R21" t="s">
         <v>87</v>
@@ -2609,25 +2672,25 @@
         <v>87</v>
       </c>
       <c r="X21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z21" t="s">
         <v>87</v>
       </c>
       <c r="AA21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC21" t="s">
         <v>87</v>
       </c>
       <c r="AD21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
         <v>87</v>
@@ -2646,368 +2709,380 @@
       </c>
       <c r="AJ21" t="s">
         <v>87</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
         <v>89</v>
       </c>
       <c r="Y22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AC22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ22" t="s">
         <v>89</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
         <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O23" t="s">
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W23" t="s">
         <v>88</v>
       </c>
       <c r="X23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AB23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s">
         <v>88</v>
       </c>
       <c r="AJ23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>88</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ24" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
         <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
         <v>88</v>
@@ -3022,81 +3097,84 @@
         <v>88</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ25" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
@@ -3105,215 +3183,221 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ26" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
         <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W27" t="s">
         <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA27" t="s">
         <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC27" t="s">
         <v>87</v>
       </c>
       <c r="AD27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ27" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>89</v>
@@ -3322,165 +3406,168 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
         <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M28" t="s">
         <v>88</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O28" t="s">
         <v>89</v>
       </c>
       <c r="P28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AC28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ28" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
         <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
         <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="s">
         <v>87</v>
       </c>
       <c r="R29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S29" t="s">
         <v>87</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V29" t="s">
         <v>87</v>
@@ -3489,84 +3576,87 @@
         <v>87</v>
       </c>
       <c r="X29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
         <v>88</v>
@@ -3575,46 +3665,46 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q30" t="s">
         <v>88</v>
       </c>
       <c r="R30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X30" t="s">
         <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Z30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA30" t="s">
         <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD30" t="s">
         <v>87</v>
@@ -3623,316 +3713,325 @@
         <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="U31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="W31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X31" t="s">
         <v>91</v>
       </c>
       <c r="Y31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AA31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AD31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AE31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AJ31" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ32" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
         <v>90</v>
       </c>
       <c r="N33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="s">
         <v>88</v>
@@ -3941,203 +4040,209 @@
         <v>89</v>
       </c>
       <c r="AB33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ33" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ34" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
         <v>88</v>
       </c>
       <c r="N35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q35" t="s">
         <v>88</v>
       </c>
       <c r="R35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U35" t="s">
         <v>88</v>
@@ -4146,82 +4251,85 @@
         <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X35" t="s">
         <v>88</v>
       </c>
       <c r="Y35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AG35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ35" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" t="s">
         <v>90</v>
       </c>
-      <c r="K36" t="s">
-        <v>89</v>
-      </c>
       <c r="L36" t="s">
         <v>88</v>
       </c>
@@ -4229,337 +4337,346 @@
         <v>89</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ36" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ37" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ38" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" t="s">
         <v>90</v>
       </c>
-      <c r="M39" t="s">
-        <v>89</v>
-      </c>
       <c r="N39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O39" t="s">
         <v>88</v>
@@ -4568,200 +4685,206 @@
         <v>89</v>
       </c>
       <c r="Q39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AB39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AC39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ39" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="T40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ40" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
         <v>89</v>
@@ -4770,46 +4893,46 @@
         <v>88</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R41" t="s">
+        <v>89</v>
+      </c>
+      <c r="S41" t="s">
         <v>90</v>
       </c>
-      <c r="S41" t="s">
-        <v>89</v>
-      </c>
       <c r="T41" t="s">
         <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y41" t="s">
         <v>89</v>
@@ -4818,90 +4941,93 @@
         <v>88</v>
       </c>
       <c r="AA41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG41" t="s">
         <v>90</v>
       </c>
-      <c r="AG41" t="s">
-        <v>86</v>
-      </c>
       <c r="AH41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s">
         <v>89</v>
       </c>
       <c r="AJ41" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" t="s">
         <v>90</v>
       </c>
-      <c r="M42" t="s">
-        <v>88</v>
-      </c>
       <c r="N42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P42" t="s">
         <v>88</v>
       </c>
       <c r="Q42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S42" t="s">
         <v>89</v>
@@ -4910,7 +5036,7 @@
         <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V42" t="s">
         <v>89</v>
@@ -4922,7 +5048,7 @@
         <v>89</v>
       </c>
       <c r="Y42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z42" t="s">
         <v>88</v>
@@ -4931,459 +5057,471 @@
         <v>89</v>
       </c>
       <c r="AB42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s">
         <v>88</v>
       </c>
       <c r="AH42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ42" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O43" t="s">
         <v>87</v>
       </c>
       <c r="P43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="V43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ43" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ44" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ45" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE46" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AF46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG46" t="s">
         <v>88</v>
@@ -5392,30 +5530,33 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ46" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
         <v>88</v>
@@ -5424,218 +5565,224 @@
         <v>89</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q47" t="s">
         <v>89</v>
       </c>
       <c r="R47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="W47" t="s">
         <v>89</v>
       </c>
       <c r="X47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA47" t="s">
         <v>88</v>
       </c>
       <c r="AB47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s">
         <v>88</v>
       </c>
       <c r="AI47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ47" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s">
         <v>90</v>
       </c>
-      <c r="G48" t="s">
-        <v>86</v>
-      </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
         <v>88</v>
       </c>
       <c r="J48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L48" t="s">
+        <v>88</v>
+      </c>
+      <c r="M48" t="s">
         <v>90</v>
       </c>
-      <c r="M48" t="s">
-        <v>89</v>
-      </c>
       <c r="N48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S48" t="s">
         <v>88</v>
       </c>
       <c r="T48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U48" t="s">
         <v>89</v>
       </c>
       <c r="V48" t="s">
+        <v>88</v>
+      </c>
+      <c r="W48" t="s">
         <v>90</v>
       </c>
-      <c r="W48" t="s">
-        <v>89</v>
-      </c>
       <c r="X48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ48" t="s">
         <v>88</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
         <v>89</v>
@@ -5644,308 +5791,317 @@
         <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ49" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" t="s">
         <v>90</v>
       </c>
-      <c r="K50" t="s">
-        <v>88</v>
-      </c>
       <c r="L50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O50" t="s">
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AJ50" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ51" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.25</t>
+  </si>
+  <si>
+    <t>X2018.11.23</t>
+  </si>
+  <si>
     <t>X2018.11.21</t>
   </si>
   <si>
@@ -143,9 +149,6 @@
     <t>Da Silva</t>
   </si>
   <si>
-    <t>EBAERV_</t>
-  </si>
-  <si>
     <t>Fabíola</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
     <t>YOSHINZ</t>
   </si>
   <si>
+    <t>yusif</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
@@ -284,13 +290,13 @@
     <t>MIA</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>-BF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -453,236 +459,254 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
       <c r="S2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>88</v>
-      </c>
       <c r="AK2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK3" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
@@ -694,447 +718,471 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AD5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC6" t="s">
         <v>89</v>
       </c>
       <c r="AD6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -1143,13 +1191,13 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
@@ -1176,7 +1224,7 @@
         <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
         <v>89</v>
@@ -1191,10 +1239,10 @@
         <v>89</v>
       </c>
       <c r="T8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V8" t="s">
         <v>89</v>
@@ -1206,964 +1254,1018 @@
         <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s">
         <v>91</v>
       </c>
       <c r="AH8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE9" t="s">
         <v>89</v>
       </c>
       <c r="AF9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AD11" t="s">
         <v>89</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK11" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W12" t="s">
         <v>89</v>
       </c>
       <c r="X12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK12" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AA13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
         <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK15" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Z16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AD16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AG16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>89</v>
@@ -2172,664 +2274,700 @@
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
         <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="s">
         <v>91</v>
       </c>
       <c r="AH17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK17" t="s">
         <v>91</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
         <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="U18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Z18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE18" t="s">
         <v>89</v>
       </c>
       <c r="AF18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s">
         <v>89</v>
       </c>
       <c r="AJ18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R19" t="s">
         <v>90</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Z19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AA19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AB19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AD19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AG19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
         <v>89</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD20" t="s">
         <v>91</v>
       </c>
       <c r="AE20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK20" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AE21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK21" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Z22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK22" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -2838,16 +2976,16 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
         <v>89</v>
@@ -2856,150 +2994,156 @@
         <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="W23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AB23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AF23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
         <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U24" t="s">
         <v>91</v>
@@ -3047,399 +3191,423 @@
         <v>91</v>
       </c>
       <c r="AJ24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T25" t="s">
         <v>89</v>
       </c>
       <c r="U25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="W25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="X25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Z25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AB25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AC25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AD25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AE25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AG25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AH25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s">
         <v>91</v>
       </c>
       <c r="AJ26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK26" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N27" t="s">
         <v>89</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AD27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AF27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AH27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
         <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N28" t="s">
         <v>89</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q28" t="s">
         <v>91</v>
@@ -3448,25 +3616,25 @@
         <v>91</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T28" t="s">
         <v>91</v>
       </c>
       <c r="U28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W28" t="s">
         <v>91</v>
       </c>
       <c r="X28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z28" t="s">
         <v>91</v>
@@ -3481,262 +3649,280 @@
         <v>91</v>
       </c>
       <c r="AD28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
         <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s">
         <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U29" t="s">
         <v>89</v>
       </c>
       <c r="V29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y29" t="s">
         <v>89</v>
       </c>
       <c r="Z29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB29" t="s">
         <v>91</v>
       </c>
       <c r="AC29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s">
         <v>91</v>
       </c>
       <c r="AI29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK29" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="S30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="W30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AG30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
@@ -3745,13 +3931,13 @@
         <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>91</v>
@@ -3763,1250 +3949,1316 @@
         <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC32" t="s">
         <v>91</v>
       </c>
       <c r="AD32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK32" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="T33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AB33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AD33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s">
         <v>91</v>
       </c>
       <c r="Q34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T34" t="s">
         <v>91</v>
       </c>
       <c r="U34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X34" t="s">
         <v>91</v>
       </c>
       <c r="Y34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA34" t="s">
         <v>91</v>
       </c>
       <c r="AB34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK34" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M35" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V35" t="s">
         <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y35" t="s">
         <v>89</v>
       </c>
       <c r="Z35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK35" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
         <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="S36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AA36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AG36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P39" t="s">
         <v>89</v>
       </c>
       <c r="Q39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="V39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK39" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="V40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK40" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
         <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
         <v>89</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q41" t="s">
         <v>89</v>
       </c>
       <c r="R41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AE41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG41" t="s">
         <v>90</v>
       </c>
       <c r="AH41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK41" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
         <v>89</v>
@@ -5018,795 +5270,837 @@
         <v>89</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q42" t="s">
         <v>89</v>
       </c>
       <c r="R42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="W42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AB42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AF42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK44" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>90</v>
+      </c>
+      <c r="R45" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>89</v>
+      </c>
+      <c r="T45" t="s">
+        <v>89</v>
+      </c>
+      <c r="U45" t="s">
+        <v>90</v>
+      </c>
+      <c r="V45" t="s">
+        <v>90</v>
+      </c>
+      <c r="W45" t="s">
+        <v>90</v>
+      </c>
+      <c r="X45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG45" t="s">
         <v>92</v>
       </c>
-      <c r="Q45" t="s">
-        <v>87</v>
-      </c>
-      <c r="R45" t="s">
-        <v>87</v>
-      </c>
-      <c r="S45" t="s">
-        <v>87</v>
-      </c>
-      <c r="T45" t="s">
-        <v>88</v>
-      </c>
-      <c r="U45" t="s">
-        <v>88</v>
-      </c>
-      <c r="V45" t="s">
-        <v>87</v>
-      </c>
-      <c r="W45" t="s">
-        <v>87</v>
-      </c>
-      <c r="X45" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>87</v>
-      </c>
       <c r="AH45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AK45" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AD46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AF46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s">
         <v>89</v>
       </c>
       <c r="AI46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK46" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M47" t="s">
         <v>89</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Z47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s">
         <v>89</v>
       </c>
       <c r="AJ47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AK47" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AE48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L49" t="s">
         <v>89</v>
       </c>
       <c r="M49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O49" t="s">
         <v>89</v>
@@ -5815,293 +6109,311 @@
         <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S49" t="s">
         <v>89</v>
       </c>
       <c r="T49" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V49" t="s">
         <v>89</v>
       </c>
       <c r="W49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z49" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AC49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AD49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O50" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R50" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U50" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W50" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK51" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warmap.xlsx
+++ b/docs/data/warmap.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>X2018.11.27</t>
+  </si>
+  <si>
     <t>X2018.11.25</t>
   </si>
   <si>
@@ -290,13 +293,13 @@
     <t>MIA</t>
   </si>
   <si>
+    <t>-BF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-BF</t>
   </si>
 </sst>
 </file>
@@ -465,983 +468,1010 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
         <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z2" t="s">
         <v>90</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC2" t="s">
         <v>90</v>
       </c>
       <c r="AD2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI2" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL2" t="s">
         <v>90</v>
       </c>
       <c r="AM2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
         <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
         <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA3" t="s">
         <v>90</v>
       </c>
       <c r="AB3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
         <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
         <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V5" t="s">
         <v>90</v>
       </c>
       <c r="W5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE5" t="s">
         <v>90</v>
       </c>
       <c r="AF5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s">
         <v>90</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
         <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
         <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W6" t="s">
         <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Z6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG6" t="s">
         <v>90</v>
       </c>
       <c r="AH6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="s">
         <v>90</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM7" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T8" t="s">
         <v>90</v>
       </c>
       <c r="U8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
         <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s">
         <v>90</v>
       </c>
       <c r="AK8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s">
         <v>90</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
         <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V9" t="s">
         <v>90</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Z9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="s">
         <v>90</v>
       </c>
       <c r="AB9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
         <v>90</v>
       </c>
       <c r="AE9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH9" t="s">
         <v>90</v>
       </c>
       <c r="AI9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ9" t="s">
         <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s">
         <v>90</v>
       </c>
       <c r="AM9" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
         <v>90</v>
@@ -1450,102 +1480,105 @@
         <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
         <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s">
         <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
         <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s">
         <v>90</v>
       </c>
       <c r="U10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z10" t="s">
         <v>91</v>
       </c>
       <c r="AA10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s">
         <v>91</v>
       </c>
       <c r="AG10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -1554,58 +1587,58 @@
         <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
         <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
         <v>90</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U11" t="s">
         <v>91</v>
       </c>
       <c r="V11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X11" t="s">
         <v>90</v>
@@ -1614,542 +1647,557 @@
         <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s">
         <v>90</v>
       </c>
       <c r="AC11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="s">
         <v>90</v>
       </c>
       <c r="AG11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI11" t="s">
         <v>90</v>
       </c>
       <c r="AJ11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK11" t="s">
         <v>90</v>
       </c>
       <c r="AL11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AM11" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
         <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
         <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
         <v>90</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V12" t="s">
         <v>90</v>
       </c>
       <c r="W12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA12" t="s">
         <v>90</v>
       </c>
       <c r="AB12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE12" t="s">
         <v>90</v>
       </c>
       <c r="AF12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH12" t="s">
         <v>90</v>
       </c>
       <c r="AI12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK12" t="s">
         <v>90</v>
       </c>
       <c r="AL12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AM12" t="s">
         <v>90</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
         <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM13" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
         <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X14" t="s">
         <v>90</v>
       </c>
       <c r="Y14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA14" t="s">
         <v>90</v>
       </c>
       <c r="AB14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
         <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s">
         <v>90</v>
       </c>
       <c r="Q15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
         <v>90</v>
       </c>
       <c r="S15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
         <v>90</v>
       </c>
       <c r="U15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V15" t="s">
         <v>90</v>
       </c>
       <c r="W15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="s">
         <v>90</v>
       </c>
       <c r="AC15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s">
         <v>90</v>
       </c>
       <c r="AJ15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK15" t="s">
         <v>90</v>
       </c>
       <c r="AL15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AM15" t="s">
         <v>90</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
         <v>90</v>
@@ -2158,13 +2206,13 @@
         <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
         <v>90</v>
@@ -2173,126 +2221,129 @@
         <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM16" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O17" t="s">
         <v>90</v>
@@ -2301,49 +2352,49 @@
         <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W17" t="s">
         <v>90</v>
       </c>
       <c r="X17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z17" t="s">
         <v>90</v>
       </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB17" t="s">
         <v>90</v>
       </c>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AE17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="s">
         <v>90</v>
@@ -2352,69 +2403,72 @@
         <v>91</v>
       </c>
       <c r="AH17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM17" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s">
         <v>90</v>
@@ -2423,236 +2477,242 @@
         <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC18" t="s">
         <v>90</v>
       </c>
       <c r="AD18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="s">
         <v>90</v>
       </c>
       <c r="AG18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s">
         <v>90</v>
       </c>
       <c r="AK18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AM18" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
         <v>90</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
         <v>90</v>
       </c>
       <c r="R19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM19" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
         <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s">
         <v>90</v>
@@ -2661,37 +2721,37 @@
         <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="s">
         <v>90</v>
       </c>
       <c r="AA20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC20" t="s">
         <v>90</v>
@@ -2700,768 +2760,789 @@
         <v>91</v>
       </c>
       <c r="AE20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s">
         <v>90</v>
       </c>
       <c r="AG20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="s">
         <v>90</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
         <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
         <v>90</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="s">
         <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
         <v>90</v>
       </c>
       <c r="U21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB21" t="s">
         <v>90</v>
       </c>
       <c r="AC21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AE21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s">
         <v>90</v>
       </c>
       <c r="AI21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V22" t="s">
         <v>91</v>
       </c>
       <c r="W22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB22" t="s">
         <v>91</v>
       </c>
       <c r="AC22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ22" t="s">
         <v>91</v>
       </c>
       <c r="AK22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AL22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM22" t="s">
         <v>91</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
         <v>91</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T23" t="s">
         <v>90</v>
       </c>
       <c r="U23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM23" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s">
         <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R24" t="s">
         <v>90</v>
       </c>
       <c r="S24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
         <v>91</v>
       </c>
       <c r="V24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM24" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s">
         <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s">
         <v>90</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R25" t="s">
         <v>90</v>
       </c>
       <c r="S25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM25" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
         <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
         <v>90</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R26" t="s">
         <v>90</v>
       </c>
       <c r="S26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T26" t="s">
         <v>90</v>
       </c>
       <c r="U26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W26" t="s">
         <v>90</v>
       </c>
       <c r="X26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z26" t="s">
         <v>90</v>
       </c>
       <c r="AA26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD26" t="s">
         <v>90</v>
       </c>
       <c r="AE26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF26" t="s">
         <v>90</v>
       </c>
       <c r="AG26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s">
         <v>91</v>
       </c>
       <c r="AJ26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM26" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
         <v>90</v>
@@ -3470,19 +3551,19 @@
         <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" t="s">
         <v>90</v>
@@ -3491,138 +3572,141 @@
         <v>91</v>
       </c>
       <c r="Q27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM27" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O28" t="s">
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V28" t="s">
         <v>90</v>
@@ -3631,81 +3715,84 @@
         <v>91</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM28" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>90</v>
@@ -3714,608 +3801,623 @@
         <v>91</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M29" t="s">
         <v>90</v>
       </c>
       <c r="N29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X29" t="s">
         <v>90</v>
       </c>
       <c r="Y29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z29" t="s">
         <v>90</v>
       </c>
       <c r="AA29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AC29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD29" t="s">
         <v>90</v>
       </c>
       <c r="AE29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AM29" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD30" t="s">
-        <v>93</v>
+     